--- a/emdb/data/outputs/emissions_nigeria_2018.xlsx
+++ b/emdb/data/outputs/emissions_nigeria_2018.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="325">
   <si>
     <t xml:space="preserve">Area</t>
   </si>
@@ -725,7 +725,7 @@
     <t xml:space="preserve">NGA</t>
   </si>
   <si>
-    <t xml:space="preserve">1.A</t>
+    <t xml:space="preserve">1.A.</t>
   </si>
   <si>
     <t xml:space="preserve">Fuel Combustion Activities</t>
@@ -734,12 +734,15 @@
     <t xml:space="preserve">Bagasse</t>
   </si>
   <si>
+    <t xml:space="preserve">Emissions (CO2bio)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kt</t>
+  </si>
+  <si>
     <t xml:space="preserve">Emissions (CO2eq) from CH4 (AR5)</t>
   </si>
   <si>
-    <t xml:space="preserve">kt</t>
-  </si>
-  <si>
     <t xml:space="preserve">Emissions (CO2eq) from N2O (AR5)</t>
   </si>
   <si>
@@ -782,6 +785,9 @@
     <t xml:space="preserve">Refinery gas</t>
   </si>
   <si>
+    <t xml:space="preserve">Vegetal waste</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.B.1</t>
   </si>
   <si>
@@ -789,9 +795,6 @@
   </si>
   <si>
     <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Emissions (CO2bio)</t>
   </si>
   <si>
     <t xml:space="preserve">1.B.2</t>
@@ -2272,11 +2275,11 @@
       <c r="HW2"/>
       <c r="HX2"/>
       <c r="HY2" t="n">
-        <v>1.037232</v>
+        <v>123.48</v>
       </c>
       <c r="HZ2"/>
       <c r="IA2" t="n">
-        <v>1.037232</v>
+        <v>123.48</v>
       </c>
     </row>
     <row r="3">
@@ -2529,11 +2532,11 @@
       <c r="HW3"/>
       <c r="HX3"/>
       <c r="HY3" t="n">
-        <v>1.308888</v>
+        <v>1.037232</v>
       </c>
       <c r="HZ3"/>
       <c r="IA3" t="n">
-        <v>1.308888</v>
+        <v>1.037232</v>
       </c>
     </row>
     <row r="4">
@@ -2553,10 +2556,10 @@
         <v>238</v>
       </c>
       <c r="F4" t="s">
+        <v>239</v>
+      </c>
+      <c r="G4" t="s">
         <v>243</v>
-      </c>
-      <c r="G4" t="s">
-        <v>240</v>
       </c>
       <c r="H4" t="s">
         <v>241</v>
@@ -2786,11 +2789,11 @@
       <c r="HW4"/>
       <c r="HX4"/>
       <c r="HY4" t="n">
-        <v>216.186620328</v>
+        <v>1.308888</v>
       </c>
       <c r="HZ4"/>
       <c r="IA4" t="n">
-        <v>216.186620328</v>
+        <v>1.308888</v>
       </c>
     </row>
     <row r="5">
@@ -2810,10 +2813,10 @@
         <v>238</v>
       </c>
       <c r="F5" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G5" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H5" t="s">
         <v>241</v>
@@ -3043,11 +3046,11 @@
       <c r="HW5"/>
       <c r="HX5"/>
       <c r="HY5" t="n">
-        <v>40.9210388478</v>
+        <v>4323.73240656</v>
       </c>
       <c r="HZ5"/>
       <c r="IA5" t="n">
-        <v>40.9210388478</v>
+        <v>4323.73240656</v>
       </c>
     </row>
     <row r="6">
@@ -3070,7 +3073,7 @@
         <v>244</v>
       </c>
       <c r="G6" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H6" t="s">
         <v>241</v>
@@ -3136,9 +3139,7 @@
       <c r="BO6"/>
       <c r="BP6"/>
       <c r="BQ6"/>
-      <c r="BR6" t="n">
-        <v>543.306632022</v>
-      </c>
+      <c r="BR6"/>
       <c r="BS6"/>
       <c r="BT6"/>
       <c r="BU6"/>
@@ -3302,11 +3303,11 @@
       <c r="HW6"/>
       <c r="HX6"/>
       <c r="HY6" t="n">
-        <v>1465.66492569</v>
+        <v>216.186620328</v>
       </c>
       <c r="HZ6"/>
       <c r="IA6" t="n">
-        <v>2008.971557712</v>
+        <v>216.186620328</v>
       </c>
     </row>
     <row r="7">
@@ -3329,7 +3330,7 @@
         <v>244</v>
       </c>
       <c r="G7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="H7" t="s">
         <v>241</v>
@@ -3395,9 +3396,7 @@
       <c r="BO7"/>
       <c r="BP7"/>
       <c r="BQ7"/>
-      <c r="BR7" t="n">
-        <v>0.58963510452</v>
-      </c>
+      <c r="BR7"/>
       <c r="BS7"/>
       <c r="BT7"/>
       <c r="BU7"/>
@@ -3561,11 +3560,11 @@
       <c r="HW7"/>
       <c r="HX7"/>
       <c r="HY7" t="n">
-        <v>1.5906441054</v>
+        <v>40.9210388478</v>
       </c>
       <c r="HZ7"/>
       <c r="IA7" t="n">
-        <v>2.18027920992</v>
+        <v>40.9210388478</v>
       </c>
     </row>
     <row r="8">
@@ -3585,10 +3584,10 @@
         <v>238</v>
       </c>
       <c r="F8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G8" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="H8" t="s">
         <v>241</v>
@@ -3655,7 +3654,7 @@
       <c r="BP8"/>
       <c r="BQ8"/>
       <c r="BR8" t="n">
-        <v>1.11609501927</v>
+        <v>543.306632022</v>
       </c>
       <c r="BS8"/>
       <c r="BT8"/>
@@ -3820,11 +3819,11 @@
       <c r="HW8"/>
       <c r="HX8"/>
       <c r="HY8" t="n">
-        <v>3.01086205665</v>
+        <v>1465.66492569</v>
       </c>
       <c r="HZ8"/>
       <c r="IA8" t="n">
-        <v>4.12695707592</v>
+        <v>2008.971557712</v>
       </c>
     </row>
     <row r="9">
@@ -3844,10 +3843,10 @@
         <v>238</v>
       </c>
       <c r="F9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G9" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H9" t="s">
         <v>241</v>
@@ -3884,9 +3883,7 @@
       <c r="AL9"/>
       <c r="AM9"/>
       <c r="AN9"/>
-      <c r="AO9" t="n">
-        <v>190.741515807528</v>
-      </c>
+      <c r="AO9"/>
       <c r="AP9"/>
       <c r="AQ9"/>
       <c r="AR9"/>
@@ -3915,7 +3912,9 @@
       <c r="BO9"/>
       <c r="BP9"/>
       <c r="BQ9"/>
-      <c r="BR9"/>
+      <c r="BR9" t="n">
+        <v>0.58963510452</v>
+      </c>
       <c r="BS9"/>
       <c r="BT9"/>
       <c r="BU9"/>
@@ -4079,11 +4078,11 @@
       <c r="HW9"/>
       <c r="HX9"/>
       <c r="HY9" t="n">
-        <v>651.939687725227</v>
+        <v>1.5906441054</v>
       </c>
       <c r="HZ9"/>
       <c r="IA9" t="n">
-        <v>842.681203532755</v>
+        <v>2.18027920992</v>
       </c>
     </row>
     <row r="10">
@@ -4103,10 +4102,10 @@
         <v>238</v>
       </c>
       <c r="F10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G10" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H10" t="s">
         <v>241</v>
@@ -4143,9 +4142,7 @@
       <c r="AL10"/>
       <c r="AM10"/>
       <c r="AN10"/>
-      <c r="AO10" t="n">
-        <v>240.697627090452</v>
-      </c>
+      <c r="AO10"/>
       <c r="AP10"/>
       <c r="AQ10"/>
       <c r="AR10"/>
@@ -4174,7 +4171,9 @@
       <c r="BO10"/>
       <c r="BP10"/>
       <c r="BQ10"/>
-      <c r="BR10"/>
+      <c r="BR10" t="n">
+        <v>1.11609501927</v>
+      </c>
       <c r="BS10"/>
       <c r="BT10"/>
       <c r="BU10"/>
@@ -4338,11 +4337,11 @@
       <c r="HW10"/>
       <c r="HX10"/>
       <c r="HY10" t="n">
-        <v>822.685796415167</v>
+        <v>3.01086205665</v>
       </c>
       <c r="HZ10"/>
       <c r="IA10" t="n">
-        <v>1063.38342350562</v>
+        <v>4.12695707592</v>
       </c>
     </row>
     <row r="11">
@@ -4365,7 +4364,7 @@
         <v>247</v>
       </c>
       <c r="G11" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="H11" t="s">
         <v>241</v>
@@ -4402,7 +4401,9 @@
       <c r="AL11"/>
       <c r="AM11"/>
       <c r="AN11"/>
-      <c r="AO11"/>
+      <c r="AO11" t="n">
+        <v>25432.2021076704</v>
+      </c>
       <c r="AP11"/>
       <c r="AQ11"/>
       <c r="AR11"/>
@@ -4431,9 +4432,7 @@
       <c r="BO11"/>
       <c r="BP11"/>
       <c r="BQ11"/>
-      <c r="BR11" t="n">
-        <v>62.5378065</v>
-      </c>
+      <c r="BR11"/>
       <c r="BS11"/>
       <c r="BT11"/>
       <c r="BU11"/>
@@ -4597,11 +4596,11 @@
       <c r="HW11"/>
       <c r="HX11"/>
       <c r="HY11" t="n">
-        <v>12249.52120275</v>
+        <v>86925.2916966969</v>
       </c>
       <c r="HZ11"/>
       <c r="IA11" t="n">
-        <v>12312.05900925</v>
+        <v>112357.493804367</v>
       </c>
     </row>
     <row r="12">
@@ -4624,7 +4623,7 @@
         <v>247</v>
       </c>
       <c r="G12" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H12" t="s">
         <v>241</v>
@@ -4661,7 +4660,9 @@
       <c r="AL12"/>
       <c r="AM12"/>
       <c r="AN12"/>
-      <c r="AO12"/>
+      <c r="AO12" t="n">
+        <v>190.741515807528</v>
+      </c>
       <c r="AP12"/>
       <c r="AQ12"/>
       <c r="AR12"/>
@@ -4690,9 +4691,7 @@
       <c r="BO12"/>
       <c r="BP12"/>
       <c r="BQ12"/>
-      <c r="BR12" t="n">
-        <v>0.07089306</v>
-      </c>
+      <c r="BR12"/>
       <c r="BS12"/>
       <c r="BT12"/>
       <c r="BU12"/>
@@ -4856,11 +4855,11 @@
       <c r="HW12"/>
       <c r="HX12"/>
       <c r="HY12" t="n">
-        <v>13.88609691</v>
+        <v>651.939687725227</v>
       </c>
       <c r="HZ12"/>
       <c r="IA12" t="n">
-        <v>13.95698997</v>
+        <v>842.681203532755</v>
       </c>
     </row>
     <row r="13">
@@ -4883,7 +4882,7 @@
         <v>247</v>
       </c>
       <c r="G13" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H13" t="s">
         <v>241</v>
@@ -4920,7 +4919,9 @@
       <c r="AL13"/>
       <c r="AM13"/>
       <c r="AN13"/>
-      <c r="AO13"/>
+      <c r="AO13" t="n">
+        <v>240.697627090452</v>
+      </c>
       <c r="AP13"/>
       <c r="AQ13"/>
       <c r="AR13"/>
@@ -4949,9 +4950,7 @@
       <c r="BO13"/>
       <c r="BP13"/>
       <c r="BQ13"/>
-      <c r="BR13" t="n">
-        <v>0.134190435</v>
-      </c>
+      <c r="BR13"/>
       <c r="BS13"/>
       <c r="BT13"/>
       <c r="BU13"/>
@@ -5115,11 +5114,11 @@
       <c r="HW13"/>
       <c r="HX13"/>
       <c r="HY13" t="n">
-        <v>26.2843977225</v>
+        <v>822.685796415167</v>
       </c>
       <c r="HZ13"/>
       <c r="IA13" t="n">
-        <v>26.4185881575</v>
+        <v>1063.38342350562</v>
       </c>
     </row>
     <row r="14">
@@ -5142,7 +5141,7 @@
         <v>248</v>
       </c>
       <c r="G14" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H14" t="s">
         <v>241</v>
@@ -5208,7 +5207,9 @@
       <c r="BO14"/>
       <c r="BP14"/>
       <c r="BQ14"/>
-      <c r="BR14"/>
+      <c r="BR14" t="n">
+        <v>62.5378065</v>
+      </c>
       <c r="BS14"/>
       <c r="BT14"/>
       <c r="BU14"/>
@@ -5372,11 +5373,11 @@
       <c r="HW14"/>
       <c r="HX14"/>
       <c r="HY14" t="n">
-        <v>1513.247522913</v>
+        <v>12249.52120275</v>
       </c>
       <c r="HZ14"/>
       <c r="IA14" t="n">
-        <v>1513.247522913</v>
+        <v>12312.05900925</v>
       </c>
     </row>
     <row r="15">
@@ -5399,7 +5400,7 @@
         <v>248</v>
       </c>
       <c r="G15" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H15" t="s">
         <v>241</v>
@@ -5465,7 +5466,9 @@
       <c r="BO15"/>
       <c r="BP15"/>
       <c r="BQ15"/>
-      <c r="BR15"/>
+      <c r="BR15" t="n">
+        <v>0.07089306</v>
+      </c>
       <c r="BS15"/>
       <c r="BT15"/>
       <c r="BU15"/>
@@ -5629,11 +5632,11 @@
       <c r="HW15"/>
       <c r="HX15"/>
       <c r="HY15" t="n">
-        <v>0.44090458524</v>
+        <v>13.88609691</v>
       </c>
       <c r="HZ15"/>
       <c r="IA15" t="n">
-        <v>0.44090458524</v>
+        <v>13.95698997</v>
       </c>
     </row>
     <row r="16">
@@ -5656,7 +5659,7 @@
         <v>248</v>
       </c>
       <c r="G16" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H16" t="s">
         <v>241</v>
@@ -5722,7 +5725,9 @@
       <c r="BO16"/>
       <c r="BP16"/>
       <c r="BQ16"/>
-      <c r="BR16"/>
+      <c r="BR16" t="n">
+        <v>0.134190435</v>
+      </c>
       <c r="BS16"/>
       <c r="BT16"/>
       <c r="BU16"/>
@@ -5886,11 +5891,11 @@
       <c r="HW16"/>
       <c r="HX16"/>
       <c r="HY16" t="n">
-        <v>6.259270451175</v>
+        <v>26.2843977225</v>
       </c>
       <c r="HZ16"/>
       <c r="IA16" t="n">
-        <v>6.259270451175</v>
+        <v>26.4185881575</v>
       </c>
     </row>
     <row r="17">
@@ -5913,7 +5918,7 @@
         <v>249</v>
       </c>
       <c r="G17" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H17" t="s">
         <v>241</v>
@@ -6142,12 +6147,12 @@
       <c r="HV17"/>
       <c r="HW17"/>
       <c r="HX17"/>
-      <c r="HY17"/>
-      <c r="HZ17" t="n">
-        <v>607.908418975</v>
-      </c>
+      <c r="HY17" t="n">
+        <v>1513.247522913</v>
+      </c>
+      <c r="HZ17"/>
       <c r="IA17" t="n">
-        <v>607.908418975</v>
+        <v>1513.247522913</v>
       </c>
     </row>
     <row r="18">
@@ -6170,7 +6175,7 @@
         <v>249</v>
       </c>
       <c r="G18" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H18" t="s">
         <v>241</v>
@@ -6399,12 +6404,12 @@
       <c r="HV18"/>
       <c r="HW18"/>
       <c r="HX18"/>
-      <c r="HY18"/>
-      <c r="HZ18" t="n">
-        <v>0.7141861146</v>
-      </c>
+      <c r="HY18" t="n">
+        <v>0.44090458524</v>
+      </c>
+      <c r="HZ18"/>
       <c r="IA18" t="n">
-        <v>0.7141861146</v>
+        <v>0.44090458524</v>
       </c>
     </row>
     <row r="19">
@@ -6427,7 +6432,7 @@
         <v>249</v>
       </c>
       <c r="G19" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H19" t="s">
         <v>241</v>
@@ -6656,12 +6661,12 @@
       <c r="HV19"/>
       <c r="HW19"/>
       <c r="HX19"/>
-      <c r="HY19"/>
-      <c r="HZ19" t="n">
-        <v>1.35185228835</v>
-      </c>
+      <c r="HY19" t="n">
+        <v>6.259270451175</v>
+      </c>
+      <c r="HZ19"/>
       <c r="IA19" t="n">
-        <v>1.35185228835</v>
+        <v>6.259270451175</v>
       </c>
     </row>
     <row r="20">
@@ -6684,7 +6689,7 @@
         <v>250</v>
       </c>
       <c r="G20" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H20" t="s">
         <v>241</v>
@@ -6750,9 +6755,7 @@
       <c r="BO20"/>
       <c r="BP20"/>
       <c r="BQ20"/>
-      <c r="BR20" t="n">
-        <v>42.69918948</v>
-      </c>
+      <c r="BR20"/>
       <c r="BS20"/>
       <c r="BT20"/>
       <c r="BU20"/>
@@ -6915,12 +6918,12 @@
       <c r="HV20"/>
       <c r="HW20"/>
       <c r="HX20"/>
-      <c r="HY20" t="n">
-        <v>475.402129615</v>
-      </c>
-      <c r="HZ20"/>
+      <c r="HY20"/>
+      <c r="HZ20" t="n">
+        <v>607.908418975</v>
+      </c>
       <c r="IA20" t="n">
-        <v>518.101319095</v>
+        <v>607.908418975</v>
       </c>
     </row>
     <row r="21">
@@ -6943,7 +6946,7 @@
         <v>250</v>
       </c>
       <c r="G21" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H21" t="s">
         <v>241</v>
@@ -7009,9 +7012,7 @@
       <c r="BO21"/>
       <c r="BP21"/>
       <c r="BQ21"/>
-      <c r="BR21" t="n">
-        <v>0.0189473424</v>
-      </c>
+      <c r="BR21"/>
       <c r="BS21"/>
       <c r="BT21"/>
       <c r="BU21"/>
@@ -7174,12 +7175,12 @@
       <c r="HV21"/>
       <c r="HW21"/>
       <c r="HX21"/>
-      <c r="HY21" t="n">
-        <v>0.2109549862</v>
-      </c>
-      <c r="HZ21"/>
+      <c r="HY21"/>
+      <c r="HZ21" t="n">
+        <v>0.7141861146</v>
+      </c>
       <c r="IA21" t="n">
-        <v>0.2299023286</v>
+        <v>0.7141861146</v>
       </c>
     </row>
     <row r="22">
@@ -7202,7 +7203,7 @@
         <v>250</v>
       </c>
       <c r="G22" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H22" t="s">
         <v>241</v>
@@ -7268,9 +7269,7 @@
       <c r="BO22"/>
       <c r="BP22"/>
       <c r="BQ22"/>
-      <c r="BR22" t="n">
-        <v>0.0179323062</v>
-      </c>
+      <c r="BR22"/>
       <c r="BS22"/>
       <c r="BT22"/>
       <c r="BU22"/>
@@ -7433,12 +7432,12 @@
       <c r="HV22"/>
       <c r="HW22"/>
       <c r="HX22"/>
-      <c r="HY22" t="n">
-        <v>0.199653826225</v>
-      </c>
-      <c r="HZ22"/>
+      <c r="HY22"/>
+      <c r="HZ22" t="n">
+        <v>1.35185228835</v>
+      </c>
       <c r="IA22" t="n">
-        <v>0.217586132425</v>
+        <v>1.35185228835</v>
       </c>
     </row>
     <row r="23">
@@ -7461,7 +7460,7 @@
         <v>251</v>
       </c>
       <c r="G23" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H23" t="s">
         <v>241</v>
@@ -7527,7 +7526,9 @@
       <c r="BO23"/>
       <c r="BP23"/>
       <c r="BQ23"/>
-      <c r="BR23"/>
+      <c r="BR23" t="n">
+        <v>42.69918948</v>
+      </c>
       <c r="BS23"/>
       <c r="BT23"/>
       <c r="BU23"/>
@@ -7691,11 +7692,11 @@
       <c r="HW23"/>
       <c r="HX23"/>
       <c r="HY23" t="n">
-        <v>41136.624086481</v>
+        <v>475.402129615</v>
       </c>
       <c r="HZ23"/>
       <c r="IA23" t="n">
-        <v>41136.624086481</v>
+        <v>518.101319095</v>
       </c>
     </row>
     <row r="24">
@@ -7718,7 +7719,7 @@
         <v>251</v>
       </c>
       <c r="G24" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H24" t="s">
         <v>241</v>
@@ -7784,7 +7785,9 @@
       <c r="BO24"/>
       <c r="BP24"/>
       <c r="BQ24"/>
-      <c r="BR24"/>
+      <c r="BR24" t="n">
+        <v>0.0189473424</v>
+      </c>
       <c r="BS24"/>
       <c r="BT24"/>
       <c r="BU24"/>
@@ -7948,11 +7951,11 @@
       <c r="HW24"/>
       <c r="HX24"/>
       <c r="HY24" t="n">
-        <v>49.86257465028</v>
+        <v>0.2109549862</v>
       </c>
       <c r="HZ24"/>
       <c r="IA24" t="n">
-        <v>49.86257465028</v>
+        <v>0.2299023286</v>
       </c>
     </row>
     <row r="25">
@@ -7975,7 +7978,7 @@
         <v>251</v>
       </c>
       <c r="G25" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H25" t="s">
         <v>241</v>
@@ -8041,7 +8044,9 @@
       <c r="BO25"/>
       <c r="BP25"/>
       <c r="BQ25"/>
-      <c r="BR25"/>
+      <c r="BR25" t="n">
+        <v>0.0179323062</v>
+      </c>
       <c r="BS25"/>
       <c r="BT25"/>
       <c r="BU25"/>
@@ -8205,11 +8210,11 @@
       <c r="HW25"/>
       <c r="HX25"/>
       <c r="HY25" t="n">
-        <v>94.38273058803</v>
+        <v>0.199653826225</v>
       </c>
       <c r="HZ25"/>
       <c r="IA25" t="n">
-        <v>94.38273058803</v>
+        <v>0.217586132425</v>
       </c>
     </row>
     <row r="26">
@@ -8232,7 +8237,7 @@
         <v>252</v>
       </c>
       <c r="G26" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H26" t="s">
         <v>241</v>
@@ -8273,12 +8278,8 @@
       <c r="AP26"/>
       <c r="AQ26"/>
       <c r="AR26"/>
-      <c r="AS26" t="n">
-        <v>4609.6202559</v>
-      </c>
-      <c r="AT26" t="n">
-        <v>8018.2895232</v>
-      </c>
+      <c r="AS26"/>
+      <c r="AT26"/>
       <c r="AU26"/>
       <c r="AV26"/>
       <c r="AW26"/>
@@ -8302,9 +8303,7 @@
       <c r="BO26"/>
       <c r="BP26"/>
       <c r="BQ26"/>
-      <c r="BR26" t="n">
-        <v>1401.2733735</v>
-      </c>
+      <c r="BR26"/>
       <c r="BS26"/>
       <c r="BT26"/>
       <c r="BU26"/>
@@ -8313,9 +8312,7 @@
       <c r="BX26"/>
       <c r="BY26"/>
       <c r="BZ26"/>
-      <c r="CA26" t="n">
-        <v>15070.0596915</v>
-      </c>
+      <c r="CA26"/>
       <c r="CB26"/>
       <c r="CC26"/>
       <c r="CD26"/>
@@ -8470,11 +8467,11 @@
       <c r="HW26"/>
       <c r="HX26"/>
       <c r="HY26" t="n">
-        <v>6224.3516049</v>
+        <v>41136.624086481</v>
       </c>
       <c r="HZ26"/>
       <c r="IA26" t="n">
-        <v>35323.594449</v>
+        <v>41136.624086481</v>
       </c>
     </row>
     <row r="27">
@@ -8497,7 +8494,7 @@
         <v>252</v>
       </c>
       <c r="G27" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H27" t="s">
         <v>241</v>
@@ -8538,12 +8535,8 @@
       <c r="AP27"/>
       <c r="AQ27"/>
       <c r="AR27"/>
-      <c r="AS27" t="n">
-        <v>2.300701732</v>
-      </c>
-      <c r="AT27" t="n">
-        <v>4.001998336</v>
-      </c>
+      <c r="AS27"/>
+      <c r="AT27"/>
       <c r="AU27"/>
       <c r="AV27"/>
       <c r="AW27"/>
@@ -8567,9 +8560,7 @@
       <c r="BO27"/>
       <c r="BP27"/>
       <c r="BQ27"/>
-      <c r="BR27" t="n">
-        <v>0.69938778</v>
-      </c>
+      <c r="BR27"/>
       <c r="BS27"/>
       <c r="BT27"/>
       <c r="BU27"/>
@@ -8578,9 +8569,7 @@
       <c r="BX27"/>
       <c r="BY27"/>
       <c r="BZ27"/>
-      <c r="CA27" t="n">
-        <v>7.52159842</v>
-      </c>
+      <c r="CA27"/>
       <c r="CB27"/>
       <c r="CC27"/>
       <c r="CD27"/>
@@ -8735,11 +8724,11 @@
       <c r="HW27"/>
       <c r="HX27"/>
       <c r="HY27" t="n">
-        <v>3.106628252</v>
+        <v>49.86257465028</v>
       </c>
       <c r="HZ27"/>
       <c r="IA27" t="n">
-        <v>17.63031452</v>
+        <v>49.86257465028</v>
       </c>
     </row>
     <row r="28">
@@ -8762,7 +8751,7 @@
         <v>252</v>
       </c>
       <c r="G28" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H28" t="s">
         <v>241</v>
@@ -8803,12 +8792,8 @@
       <c r="AP28"/>
       <c r="AQ28"/>
       <c r="AR28"/>
-      <c r="AS28" t="n">
-        <v>2.1774498535</v>
-      </c>
-      <c r="AT28" t="n">
-        <v>3.787605568</v>
-      </c>
+      <c r="AS28"/>
+      <c r="AT28"/>
       <c r="AU28"/>
       <c r="AV28"/>
       <c r="AW28"/>
@@ -8832,9 +8817,7 @@
       <c r="BO28"/>
       <c r="BP28"/>
       <c r="BQ28"/>
-      <c r="BR28" t="n">
-        <v>0.6619205775</v>
-      </c>
+      <c r="BR28"/>
       <c r="BS28"/>
       <c r="BT28"/>
       <c r="BU28"/>
@@ -8843,9 +8826,7 @@
       <c r="BX28"/>
       <c r="BY28"/>
       <c r="BZ28"/>
-      <c r="CA28" t="n">
-        <v>7.1186556475</v>
-      </c>
+      <c r="CA28"/>
       <c r="CB28"/>
       <c r="CC28"/>
       <c r="CD28"/>
@@ -9000,11 +8981,11 @@
       <c r="HW28"/>
       <c r="HX28"/>
       <c r="HY28" t="n">
-        <v>2.9402017385</v>
+        <v>94.38273058803</v>
       </c>
       <c r="HZ28"/>
       <c r="IA28" t="n">
-        <v>16.685833385</v>
+        <v>94.38273058803</v>
       </c>
     </row>
     <row r="29">
@@ -9027,7 +9008,7 @@
         <v>253</v>
       </c>
       <c r="G29" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H29" t="s">
         <v>241</v>
@@ -9068,8 +9049,12 @@
       <c r="AP29"/>
       <c r="AQ29"/>
       <c r="AR29"/>
-      <c r="AS29"/>
-      <c r="AT29"/>
+      <c r="AS29" t="n">
+        <v>4609.6202559</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>8018.2895232</v>
+      </c>
       <c r="AU29"/>
       <c r="AV29"/>
       <c r="AW29"/>
@@ -9093,7 +9078,9 @@
       <c r="BO29"/>
       <c r="BP29"/>
       <c r="BQ29"/>
-      <c r="BR29"/>
+      <c r="BR29" t="n">
+        <v>1401.2733735</v>
+      </c>
       <c r="BS29"/>
       <c r="BT29"/>
       <c r="BU29"/>
@@ -9102,7 +9089,9 @@
       <c r="BX29"/>
       <c r="BY29"/>
       <c r="BZ29"/>
-      <c r="CA29"/>
+      <c r="CA29" t="n">
+        <v>15070.0596915</v>
+      </c>
       <c r="CB29"/>
       <c r="CC29"/>
       <c r="CD29"/>
@@ -9257,11 +9246,11 @@
       <c r="HW29"/>
       <c r="HX29"/>
       <c r="HY29" t="n">
-        <v>1489.627634418</v>
+        <v>6224.3516049</v>
       </c>
       <c r="HZ29"/>
       <c r="IA29" t="n">
-        <v>1489.627634418</v>
+        <v>35323.594449</v>
       </c>
     </row>
     <row r="30">
@@ -9284,7 +9273,7 @@
         <v>253</v>
       </c>
       <c r="G30" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H30" t="s">
         <v>241</v>
@@ -9325,8 +9314,12 @@
       <c r="AP30"/>
       <c r="AQ30"/>
       <c r="AR30"/>
-      <c r="AS30"/>
-      <c r="AT30"/>
+      <c r="AS30" t="n">
+        <v>2.300701732</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>4.001998336</v>
+      </c>
       <c r="AU30"/>
       <c r="AV30"/>
       <c r="AW30"/>
@@ -9350,7 +9343,9 @@
       <c r="BO30"/>
       <c r="BP30"/>
       <c r="BQ30"/>
-      <c r="BR30"/>
+      <c r="BR30" t="n">
+        <v>0.69938778</v>
+      </c>
       <c r="BS30"/>
       <c r="BT30"/>
       <c r="BU30"/>
@@ -9359,7 +9354,9 @@
       <c r="BX30"/>
       <c r="BY30"/>
       <c r="BZ30"/>
-      <c r="CA30"/>
+      <c r="CA30" t="n">
+        <v>7.52159842</v>
+      </c>
       <c r="CB30"/>
       <c r="CC30"/>
       <c r="CD30"/>
@@ -9514,11 +9511,11 @@
       <c r="HW30"/>
       <c r="HX30"/>
       <c r="HY30" t="n">
-        <v>0.44090458524</v>
+        <v>3.106628252</v>
       </c>
       <c r="HZ30"/>
       <c r="IA30" t="n">
-        <v>0.44090458524</v>
+        <v>17.63031452</v>
       </c>
     </row>
     <row r="31">
@@ -9541,7 +9538,7 @@
         <v>253</v>
       </c>
       <c r="G31" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H31" t="s">
         <v>241</v>
@@ -9582,8 +9579,12 @@
       <c r="AP31"/>
       <c r="AQ31"/>
       <c r="AR31"/>
-      <c r="AS31"/>
-      <c r="AT31"/>
+      <c r="AS31" t="n">
+        <v>2.1774498535</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>3.787605568</v>
+      </c>
       <c r="AU31"/>
       <c r="AV31"/>
       <c r="AW31"/>
@@ -9607,7 +9608,9 @@
       <c r="BO31"/>
       <c r="BP31"/>
       <c r="BQ31"/>
-      <c r="BR31"/>
+      <c r="BR31" t="n">
+        <v>0.6619205775</v>
+      </c>
       <c r="BS31"/>
       <c r="BT31"/>
       <c r="BU31"/>
@@ -9616,7 +9619,9 @@
       <c r="BX31"/>
       <c r="BY31"/>
       <c r="BZ31"/>
-      <c r="CA31"/>
+      <c r="CA31" t="n">
+        <v>7.1186556475</v>
+      </c>
       <c r="CB31"/>
       <c r="CC31"/>
       <c r="CD31"/>
@@ -9771,11 +9776,11 @@
       <c r="HW31"/>
       <c r="HX31"/>
       <c r="HY31" t="n">
-        <v>6.259270451175</v>
+        <v>2.9402017385</v>
       </c>
       <c r="HZ31"/>
       <c r="IA31" t="n">
-        <v>6.259270451175</v>
+        <v>16.685833385</v>
       </c>
     </row>
     <row r="32">
@@ -9798,7 +9803,7 @@
         <v>254</v>
       </c>
       <c r="G32" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H32" t="s">
         <v>241</v>
@@ -9864,9 +9869,7 @@
       <c r="BO32"/>
       <c r="BP32"/>
       <c r="BQ32"/>
-      <c r="BR32" t="n">
-        <v>22.991947875</v>
-      </c>
+      <c r="BR32"/>
       <c r="BS32"/>
       <c r="BT32"/>
       <c r="BU32"/>
@@ -10029,10 +10032,12 @@
       <c r="HV32"/>
       <c r="HW32"/>
       <c r="HX32"/>
-      <c r="HY32"/>
+      <c r="HY32" t="n">
+        <v>1489.627634418</v>
+      </c>
       <c r="HZ32"/>
       <c r="IA32" t="n">
-        <v>22.991947875</v>
+        <v>1489.627634418</v>
       </c>
     </row>
     <row r="33">
@@ -10055,7 +10060,7 @@
         <v>254</v>
       </c>
       <c r="G33" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H33" t="s">
         <v>241</v>
@@ -10121,9 +10126,7 @@
       <c r="BO33"/>
       <c r="BP33"/>
       <c r="BQ33"/>
-      <c r="BR33" t="n">
-        <v>0.0198084474</v>
-      </c>
+      <c r="BR33"/>
       <c r="BS33"/>
       <c r="BT33"/>
       <c r="BU33"/>
@@ -10286,10 +10289,12 @@
       <c r="HV33"/>
       <c r="HW33"/>
       <c r="HX33"/>
-      <c r="HY33"/>
+      <c r="HY33" t="n">
+        <v>0.44090458524</v>
+      </c>
       <c r="HZ33"/>
       <c r="IA33" t="n">
-        <v>0.0198084474</v>
+        <v>0.44090458524</v>
       </c>
     </row>
     <row r="34">
@@ -10312,7 +10317,7 @@
         <v>254</v>
       </c>
       <c r="G34" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H34" t="s">
         <v>241</v>
@@ -10378,9 +10383,7 @@
       <c r="BO34"/>
       <c r="BP34"/>
       <c r="BQ34"/>
-      <c r="BR34" t="n">
-        <v>0.03749456115</v>
-      </c>
+      <c r="BR34"/>
       <c r="BS34"/>
       <c r="BT34"/>
       <c r="BU34"/>
@@ -10543,10 +10546,12 @@
       <c r="HV34"/>
       <c r="HW34"/>
       <c r="HX34"/>
-      <c r="HY34"/>
+      <c r="HY34" t="n">
+        <v>6.259270451175</v>
+      </c>
       <c r="HZ34"/>
       <c r="IA34" t="n">
-        <v>0.03749456115</v>
+        <v>6.259270451175</v>
       </c>
     </row>
     <row r="35">
@@ -10569,7 +10574,7 @@
         <v>255</v>
       </c>
       <c r="G35" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H35" t="s">
         <v>241</v>
@@ -10636,7 +10641,7 @@
       <c r="BP35"/>
       <c r="BQ35"/>
       <c r="BR35" t="n">
-        <v>71.36811072</v>
+        <v>22.991947875</v>
       </c>
       <c r="BS35"/>
       <c r="BT35"/>
@@ -10803,7 +10808,7 @@
       <c r="HY35"/>
       <c r="HZ35"/>
       <c r="IA35" t="n">
-        <v>71.36811072</v>
+        <v>22.991947875</v>
       </c>
     </row>
     <row r="36">
@@ -10826,7 +10831,7 @@
         <v>255</v>
       </c>
       <c r="G36" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H36" t="s">
         <v>241</v>
@@ -10893,7 +10898,7 @@
       <c r="BP36"/>
       <c r="BQ36"/>
       <c r="BR36" t="n">
-        <v>0.0346928316</v>
+        <v>0.0198084474</v>
       </c>
       <c r="BS36"/>
       <c r="BT36"/>
@@ -11060,7 +11065,7 @@
       <c r="HY36"/>
       <c r="HZ36"/>
       <c r="IA36" t="n">
-        <v>0.0346928316</v>
+        <v>0.0198084474</v>
       </c>
     </row>
     <row r="37">
@@ -11083,7 +11088,7 @@
         <v>255</v>
       </c>
       <c r="G37" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H37" t="s">
         <v>241</v>
@@ -11150,7 +11155,7 @@
       <c r="BP37"/>
       <c r="BQ37"/>
       <c r="BR37" t="n">
-        <v>0.03283428705</v>
+        <v>0.03749456115</v>
       </c>
       <c r="BS37"/>
       <c r="BT37"/>
@@ -11317,7 +11322,7 @@
       <c r="HY37"/>
       <c r="HZ37"/>
       <c r="IA37" t="n">
-        <v>0.03283428705</v>
+        <v>0.03749456115</v>
       </c>
     </row>
     <row r="38">
@@ -11331,16 +11336,16 @@
         <v>2018</v>
       </c>
       <c r="D38" t="s">
+        <v>237</v>
+      </c>
+      <c r="E38" t="s">
+        <v>238</v>
+      </c>
+      <c r="F38" t="s">
         <v>256</v>
       </c>
-      <c r="E38" t="s">
-        <v>257</v>
-      </c>
-      <c r="F38" t="s">
-        <v>258</v>
-      </c>
       <c r="G38" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H38" t="s">
         <v>241</v>
@@ -11406,7 +11411,9 @@
       <c r="BO38"/>
       <c r="BP38"/>
       <c r="BQ38"/>
-      <c r="BR38"/>
+      <c r="BR38" t="n">
+        <v>71.36811072</v>
+      </c>
       <c r="BS38"/>
       <c r="BT38"/>
       <c r="BU38"/>
@@ -11414,9 +11421,7 @@
       <c r="BW38"/>
       <c r="BX38"/>
       <c r="BY38"/>
-      <c r="BZ38" t="n">
-        <v>13.967598995035</v>
-      </c>
+      <c r="BZ38"/>
       <c r="CA38"/>
       <c r="CB38"/>
       <c r="CC38"/>
@@ -11574,7 +11579,7 @@
       <c r="HY38"/>
       <c r="HZ38"/>
       <c r="IA38" t="n">
-        <v>13.967598995035</v>
+        <v>71.36811072</v>
       </c>
     </row>
     <row r="39">
@@ -11588,16 +11593,16 @@
         <v>2018</v>
       </c>
       <c r="D39" t="s">
+        <v>237</v>
+      </c>
+      <c r="E39" t="s">
+        <v>238</v>
+      </c>
+      <c r="F39" t="s">
         <v>256</v>
       </c>
-      <c r="E39" t="s">
-        <v>257</v>
-      </c>
-      <c r="F39" t="s">
-        <v>258</v>
-      </c>
       <c r="G39" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="H39" t="s">
         <v>241</v>
@@ -11663,7 +11668,9 @@
       <c r="BO39"/>
       <c r="BP39"/>
       <c r="BQ39"/>
-      <c r="BR39"/>
+      <c r="BR39" t="n">
+        <v>0.0346928316</v>
+      </c>
       <c r="BS39"/>
       <c r="BT39"/>
       <c r="BU39"/>
@@ -11671,9 +11678,7 @@
       <c r="BW39"/>
       <c r="BX39"/>
       <c r="BY39"/>
-      <c r="BZ39" t="n">
-        <v>36371.48732</v>
-      </c>
+      <c r="BZ39"/>
       <c r="CA39"/>
       <c r="CB39"/>
       <c r="CC39"/>
@@ -11831,7 +11836,7 @@
       <c r="HY39"/>
       <c r="HZ39"/>
       <c r="IA39" t="n">
-        <v>36371.48732</v>
+        <v>0.0346928316</v>
       </c>
     </row>
     <row r="40">
@@ -11845,16 +11850,16 @@
         <v>2018</v>
       </c>
       <c r="D40" t="s">
+        <v>237</v>
+      </c>
+      <c r="E40" t="s">
+        <v>238</v>
+      </c>
+      <c r="F40" t="s">
         <v>256</v>
       </c>
-      <c r="E40" t="s">
-        <v>257</v>
-      </c>
-      <c r="F40" t="s">
-        <v>258</v>
-      </c>
       <c r="G40" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="H40" t="s">
         <v>241</v>
@@ -11920,7 +11925,9 @@
       <c r="BO40"/>
       <c r="BP40"/>
       <c r="BQ40"/>
-      <c r="BR40"/>
+      <c r="BR40" t="n">
+        <v>0.03283428705</v>
+      </c>
       <c r="BS40"/>
       <c r="BT40"/>
       <c r="BU40"/>
@@ -11928,9 +11935,7 @@
       <c r="BW40"/>
       <c r="BX40"/>
       <c r="BY40"/>
-      <c r="BZ40" t="n">
-        <v>11604.089555057</v>
-      </c>
+      <c r="BZ40"/>
       <c r="CA40"/>
       <c r="CB40"/>
       <c r="CC40"/>
@@ -12088,7 +12093,7 @@
       <c r="HY40"/>
       <c r="HZ40"/>
       <c r="IA40" t="n">
-        <v>11604.089555057</v>
+        <v>0.03283428705</v>
       </c>
     </row>
     <row r="41">
@@ -12102,16 +12107,16 @@
         <v>2018</v>
       </c>
       <c r="D41" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
       <c r="E41" t="s">
+        <v>238</v>
+      </c>
+      <c r="F41" t="s">
         <v>257</v>
       </c>
-      <c r="F41" t="s">
-        <v>258</v>
-      </c>
       <c r="G41" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H41" t="s">
         <v>241</v>
@@ -12185,9 +12190,7 @@
       <c r="BW41"/>
       <c r="BX41"/>
       <c r="BY41"/>
-      <c r="BZ41" t="n">
-        <v>140.56064757</v>
-      </c>
+      <c r="BZ41"/>
       <c r="CA41"/>
       <c r="CB41"/>
       <c r="CC41"/>
@@ -12342,10 +12345,12 @@
       <c r="HV41"/>
       <c r="HW41"/>
       <c r="HX41"/>
-      <c r="HY41"/>
+      <c r="HY41" t="n">
+        <v>26066.5</v>
+      </c>
       <c r="HZ41"/>
       <c r="IA41" t="n">
-        <v>140.56064757</v>
+        <v>26066.5</v>
       </c>
     </row>
     <row r="42">
@@ -12359,16 +12364,16 @@
         <v>2018</v>
       </c>
       <c r="D42" t="s">
-        <v>260</v>
+        <v>237</v>
       </c>
       <c r="E42" t="s">
-        <v>261</v>
+        <v>238</v>
       </c>
       <c r="F42" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G42" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H42" t="s">
         <v>241</v>
@@ -12409,9 +12414,7 @@
       <c r="AP42"/>
       <c r="AQ42"/>
       <c r="AR42"/>
-      <c r="AS42" t="n">
-        <v>15596.944439247</v>
-      </c>
+      <c r="AS42"/>
       <c r="AT42"/>
       <c r="AU42"/>
       <c r="AV42"/>
@@ -12599,10 +12602,12 @@
       <c r="HV42"/>
       <c r="HW42"/>
       <c r="HX42"/>
-      <c r="HY42"/>
+      <c r="HY42" t="n">
+        <v>218.9586</v>
+      </c>
       <c r="HZ42"/>
       <c r="IA42" t="n">
-        <v>15596.944439247</v>
+        <v>218.9586</v>
       </c>
     </row>
     <row r="43">
@@ -12616,16 +12621,16 @@
         <v>2018</v>
       </c>
       <c r="D43" t="s">
-        <v>260</v>
+        <v>237</v>
       </c>
       <c r="E43" t="s">
-        <v>261</v>
+        <v>238</v>
       </c>
       <c r="F43" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G43" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="H43" t="s">
         <v>241</v>
@@ -12666,9 +12671,7 @@
       <c r="AP43"/>
       <c r="AQ43"/>
       <c r="AR43"/>
-      <c r="AS43" t="n">
-        <v>92928.2661179208</v>
-      </c>
+      <c r="AS43"/>
       <c r="AT43"/>
       <c r="AU43"/>
       <c r="AV43"/>
@@ -12856,10 +12859,12 @@
       <c r="HV43"/>
       <c r="HW43"/>
       <c r="HX43"/>
-      <c r="HY43"/>
+      <c r="HY43" t="n">
+        <v>276.3049</v>
+      </c>
       <c r="HZ43"/>
       <c r="IA43" t="n">
-        <v>92928.2661179208</v>
+        <v>276.3049</v>
       </c>
     </row>
     <row r="44">
@@ -12873,16 +12878,16 @@
         <v>2018</v>
       </c>
       <c r="D44" t="s">
+        <v>258</v>
+      </c>
+      <c r="E44" t="s">
+        <v>259</v>
+      </c>
+      <c r="F44" t="s">
         <v>260</v>
       </c>
-      <c r="E44" t="s">
-        <v>261</v>
-      </c>
-      <c r="F44" t="s">
-        <v>258</v>
-      </c>
       <c r="G44" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="H44" t="s">
         <v>241</v>
@@ -12923,9 +12928,7 @@
       <c r="AP44"/>
       <c r="AQ44"/>
       <c r="AR44"/>
-      <c r="AS44" t="n">
-        <v>57.3251271197975</v>
-      </c>
+      <c r="AS44"/>
       <c r="AT44"/>
       <c r="AU44"/>
       <c r="AV44"/>
@@ -12958,7 +12961,9 @@
       <c r="BW44"/>
       <c r="BX44"/>
       <c r="BY44"/>
-      <c r="BZ44"/>
+      <c r="BZ44" t="n">
+        <v>13.967598995035</v>
+      </c>
       <c r="CA44"/>
       <c r="CB44"/>
       <c r="CC44"/>
@@ -13116,7 +13121,7 @@
       <c r="HY44"/>
       <c r="HZ44"/>
       <c r="IA44" t="n">
-        <v>57.3251271197975</v>
+        <v>13.967598995035</v>
       </c>
     </row>
     <row r="45">
@@ -13130,16 +13135,16 @@
         <v>2018</v>
       </c>
       <c r="D45" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E45" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F45" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G45" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="H45" t="s">
         <v>241</v>
@@ -13214,7 +13219,7 @@
       <c r="BX45"/>
       <c r="BY45"/>
       <c r="BZ45" t="n">
-        <v>8747.606714</v>
+        <v>36371.48732</v>
       </c>
       <c r="CA45"/>
       <c r="CB45"/>
@@ -13373,7 +13378,7 @@
       <c r="HY45"/>
       <c r="HZ45"/>
       <c r="IA45" t="n">
-        <v>8747.606714</v>
+        <v>36371.48732</v>
       </c>
     </row>
     <row r="46">
@@ -13387,16 +13392,16 @@
         <v>2018</v>
       </c>
       <c r="D46" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="E46" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="F46" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G46" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H46" t="s">
         <v>241</v>
@@ -13471,7 +13476,7 @@
       <c r="BX46"/>
       <c r="BY46"/>
       <c r="BZ46" t="n">
-        <v>9.4325859499204</v>
+        <v>11604.089555057</v>
       </c>
       <c r="CA46"/>
       <c r="CB46"/>
@@ -13630,7 +13635,7 @@
       <c r="HY46"/>
       <c r="HZ46"/>
       <c r="IA46" t="n">
-        <v>9.4325859499204</v>
+        <v>11604.089555057</v>
       </c>
     </row>
     <row r="47">
@@ -13644,16 +13649,16 @@
         <v>2018</v>
       </c>
       <c r="D47" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="E47" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="F47" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G47" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="H47" t="s">
         <v>241</v>
@@ -13727,7 +13732,9 @@
       <c r="BW47"/>
       <c r="BX47"/>
       <c r="BY47"/>
-      <c r="BZ47"/>
+      <c r="BZ47" t="n">
+        <v>140.56064757</v>
+      </c>
       <c r="CA47"/>
       <c r="CB47"/>
       <c r="CC47"/>
@@ -13874,9 +13881,7 @@
       <c r="HN47"/>
       <c r="HO47"/>
       <c r="HP47"/>
-      <c r="HQ47" t="n">
-        <v>103.882563865</v>
-      </c>
+      <c r="HQ47"/>
       <c r="HR47"/>
       <c r="HS47"/>
       <c r="HT47"/>
@@ -13887,7 +13892,7 @@
       <c r="HY47"/>
       <c r="HZ47"/>
       <c r="IA47" t="n">
-        <v>103.882563865</v>
+        <v>140.56064757</v>
       </c>
     </row>
     <row r="48">
@@ -13901,16 +13906,16 @@
         <v>2018</v>
       </c>
       <c r="D48" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="E48" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="F48" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G48" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H48" t="s">
         <v>241</v>
@@ -13951,7 +13956,9 @@
       <c r="AP48"/>
       <c r="AQ48"/>
       <c r="AR48"/>
-      <c r="AS48"/>
+      <c r="AS48" t="n">
+        <v>15596.944439247</v>
+      </c>
       <c r="AT48"/>
       <c r="AU48"/>
       <c r="AV48"/>
@@ -13978,9 +13985,7 @@
       <c r="BQ48"/>
       <c r="BR48"/>
       <c r="BS48"/>
-      <c r="BT48" t="n">
-        <v>2067.80890559</v>
-      </c>
+      <c r="BT48"/>
       <c r="BU48"/>
       <c r="BV48"/>
       <c r="BW48"/>
@@ -14144,7 +14149,7 @@
       <c r="HY48"/>
       <c r="HZ48"/>
       <c r="IA48" t="n">
-        <v>2067.80890559</v>
+        <v>15596.944439247</v>
       </c>
     </row>
     <row r="49">
@@ -14158,16 +14163,16 @@
         <v>2018</v>
       </c>
       <c r="D49" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="E49" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="F49" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G49" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H49" t="s">
         <v>241</v>
@@ -14208,7 +14213,9 @@
       <c r="AP49"/>
       <c r="AQ49"/>
       <c r="AR49"/>
-      <c r="AS49"/>
+      <c r="AS49" t="n">
+        <v>92928.2661179208</v>
+      </c>
       <c r="AT49"/>
       <c r="AU49"/>
       <c r="AV49"/>
@@ -14235,9 +14242,7 @@
       <c r="BQ49"/>
       <c r="BR49"/>
       <c r="BS49"/>
-      <c r="BT49" t="n">
-        <v>2.79216</v>
-      </c>
+      <c r="BT49"/>
       <c r="BU49"/>
       <c r="BV49"/>
       <c r="BW49"/>
@@ -14401,7 +14406,7 @@
       <c r="HY49"/>
       <c r="HZ49"/>
       <c r="IA49" t="n">
-        <v>2.79216</v>
+        <v>92928.2661179208</v>
       </c>
     </row>
     <row r="50">
@@ -14415,16 +14420,16 @@
         <v>2018</v>
       </c>
       <c r="D50" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="E50" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="F50" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G50" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="H50" t="s">
         <v>241</v>
@@ -14465,7 +14470,9 @@
       <c r="AP50"/>
       <c r="AQ50"/>
       <c r="AR50"/>
-      <c r="AS50"/>
+      <c r="AS50" t="n">
+        <v>57.3251271197975</v>
+      </c>
       <c r="AT50"/>
       <c r="AU50"/>
       <c r="AV50"/>
@@ -14494,9 +14501,7 @@
       <c r="BS50"/>
       <c r="BT50"/>
       <c r="BU50"/>
-      <c r="BV50" t="n">
-        <v>26.77064</v>
-      </c>
+      <c r="BV50"/>
       <c r="BW50"/>
       <c r="BX50"/>
       <c r="BY50"/>
@@ -14658,7 +14663,7 @@
       <c r="HY50"/>
       <c r="HZ50"/>
       <c r="IA50" t="n">
-        <v>26.77064</v>
+        <v>57.3251271197975</v>
       </c>
     </row>
     <row r="51">
@@ -14672,16 +14677,16 @@
         <v>2018</v>
       </c>
       <c r="D51" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="E51" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="F51" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G51" t="s">
-        <v>272</v>
+        <v>246</v>
       </c>
       <c r="H51" t="s">
         <v>241</v>
@@ -14755,7 +14760,9 @@
       <c r="BW51"/>
       <c r="BX51"/>
       <c r="BY51"/>
-      <c r="BZ51"/>
+      <c r="BZ51" t="n">
+        <v>8747.606714</v>
+      </c>
       <c r="CA51"/>
       <c r="CB51"/>
       <c r="CC51"/>
@@ -14913,7 +14920,7 @@
       <c r="HY51"/>
       <c r="HZ51"/>
       <c r="IA51" t="n">
-        <v>0</v>
+        <v>8747.606714</v>
       </c>
     </row>
     <row r="52">
@@ -14927,16 +14934,16 @@
         <v>2018</v>
       </c>
       <c r="D52" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="E52" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="F52" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G52" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H52" t="s">
         <v>241</v>
@@ -15010,7 +15017,9 @@
       <c r="BW52"/>
       <c r="BX52"/>
       <c r="BY52"/>
-      <c r="BZ52"/>
+      <c r="BZ52" t="n">
+        <v>9.4325859499204</v>
+      </c>
       <c r="CA52"/>
       <c r="CB52"/>
       <c r="CC52"/>
@@ -15158,9 +15167,7 @@
       <c r="HO52"/>
       <c r="HP52"/>
       <c r="HQ52"/>
-      <c r="HR52" t="n">
-        <v>539.6753417721</v>
-      </c>
+      <c r="HR52"/>
       <c r="HS52"/>
       <c r="HT52"/>
       <c r="HU52"/>
@@ -15170,7 +15177,7 @@
       <c r="HY52"/>
       <c r="HZ52"/>
       <c r="IA52" t="n">
-        <v>539.6753417721</v>
+        <v>9.4325859499204</v>
       </c>
     </row>
     <row r="53">
@@ -15184,16 +15191,16 @@
         <v>2018</v>
       </c>
       <c r="D53" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="E53" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="F53" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G53" t="s">
-        <v>277</v>
+        <v>246</v>
       </c>
       <c r="H53" t="s">
         <v>241</v>
@@ -15414,11 +15421,11 @@
       <c r="HN53"/>
       <c r="HO53"/>
       <c r="HP53"/>
-      <c r="HQ53"/>
+      <c r="HQ53" t="n">
+        <v>103.882563865</v>
+      </c>
       <c r="HR53"/>
-      <c r="HS53" t="n">
-        <v>8419.323442671</v>
-      </c>
+      <c r="HS53"/>
       <c r="HT53"/>
       <c r="HU53"/>
       <c r="HV53"/>
@@ -15427,7 +15434,7 @@
       <c r="HY53"/>
       <c r="HZ53"/>
       <c r="IA53" t="n">
-        <v>8419.323442671</v>
+        <v>103.882563865</v>
       </c>
     </row>
     <row r="54">
@@ -15441,16 +15448,16 @@
         <v>2018</v>
       </c>
       <c r="D54" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="E54" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="F54" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G54" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="H54" t="s">
         <v>241</v>
@@ -15518,7 +15525,9 @@
       <c r="BQ54"/>
       <c r="BR54"/>
       <c r="BS54"/>
-      <c r="BT54"/>
+      <c r="BT54" t="n">
+        <v>2067.80890559</v>
+      </c>
       <c r="BU54"/>
       <c r="BV54"/>
       <c r="BW54"/>
@@ -15674,9 +15683,7 @@
       <c r="HQ54"/>
       <c r="HR54"/>
       <c r="HS54"/>
-      <c r="HT54" t="n">
-        <v>0.570976315855</v>
-      </c>
+      <c r="HT54"/>
       <c r="HU54"/>
       <c r="HV54"/>
       <c r="HW54"/>
@@ -15684,7 +15691,7 @@
       <c r="HY54"/>
       <c r="HZ54"/>
       <c r="IA54" t="n">
-        <v>0.570976315855</v>
+        <v>2067.80890559</v>
       </c>
     </row>
     <row r="55">
@@ -15698,16 +15705,16 @@
         <v>2018</v>
       </c>
       <c r="D55" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="E55" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="F55" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G55" t="s">
-        <v>280</v>
+        <v>242</v>
       </c>
       <c r="H55" t="s">
         <v>241</v>
@@ -15775,7 +15782,9 @@
       <c r="BQ55"/>
       <c r="BR55"/>
       <c r="BS55"/>
-      <c r="BT55"/>
+      <c r="BT55" t="n">
+        <v>2.79216</v>
+      </c>
       <c r="BU55"/>
       <c r="BV55"/>
       <c r="BW55"/>
@@ -15931,9 +15940,7 @@
       <c r="HQ55"/>
       <c r="HR55"/>
       <c r="HS55"/>
-      <c r="HT55" t="n">
-        <v>46.5497493</v>
-      </c>
+      <c r="HT55"/>
       <c r="HU55"/>
       <c r="HV55"/>
       <c r="HW55"/>
@@ -15941,7 +15948,7 @@
       <c r="HY55"/>
       <c r="HZ55"/>
       <c r="IA55" t="n">
-        <v>46.5497493</v>
+        <v>2.79216</v>
       </c>
     </row>
     <row r="56">
@@ -15955,16 +15962,16 @@
         <v>2018</v>
       </c>
       <c r="D56" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="E56" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="F56" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G56" t="s">
-        <v>281</v>
+        <v>246</v>
       </c>
       <c r="H56" t="s">
         <v>241</v>
@@ -16034,7 +16041,9 @@
       <c r="BS56"/>
       <c r="BT56"/>
       <c r="BU56"/>
-      <c r="BV56"/>
+      <c r="BV56" t="n">
+        <v>26.77064</v>
+      </c>
       <c r="BW56"/>
       <c r="BX56"/>
       <c r="BY56"/>
@@ -16188,9 +16197,7 @@
       <c r="HQ56"/>
       <c r="HR56"/>
       <c r="HS56"/>
-      <c r="HT56" t="n">
-        <v>593.845</v>
-      </c>
+      <c r="HT56"/>
       <c r="HU56"/>
       <c r="HV56"/>
       <c r="HW56"/>
@@ -16198,7 +16205,7 @@
       <c r="HY56"/>
       <c r="HZ56"/>
       <c r="IA56" t="n">
-        <v>593.845</v>
+        <v>26.77064</v>
       </c>
     </row>
     <row r="57">
@@ -16212,16 +16219,16 @@
         <v>2018</v>
       </c>
       <c r="D57" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="E57" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="F57" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G57" t="s">
-        <v>240</v>
+        <v>273</v>
       </c>
       <c r="H57" t="s">
         <v>241</v>
@@ -16252,20 +16259,12 @@
       <c r="AF57"/>
       <c r="AG57"/>
       <c r="AH57"/>
-      <c r="AI57" t="n">
-        <v>2790.5332</v>
-      </c>
-      <c r="AJ57" t="n">
-        <v>15688.2684</v>
-      </c>
+      <c r="AI57"/>
+      <c r="AJ57"/>
       <c r="AK57"/>
       <c r="AL57"/>
-      <c r="AM57" t="n">
-        <v>17570.378</v>
-      </c>
-      <c r="AN57" t="n">
-        <v>1013.4404</v>
-      </c>
+      <c r="AM57"/>
+      <c r="AN57"/>
       <c r="AO57"/>
       <c r="AP57"/>
       <c r="AQ57"/>
@@ -16461,7 +16460,7 @@
       <c r="HY57"/>
       <c r="HZ57"/>
       <c r="IA57" t="n">
-        <v>37062.62</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -16475,16 +16474,16 @@
         <v>2018</v>
       </c>
       <c r="D58" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="E58" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="F58" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G58" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="H58" t="s">
         <v>241</v>
@@ -16515,24 +16514,12 @@
       <c r="AF58"/>
       <c r="AG58"/>
       <c r="AH58"/>
-      <c r="AI58" t="n">
-        <v>66.727</v>
-      </c>
-      <c r="AJ58" t="n">
-        <v>68.264</v>
-      </c>
-      <c r="AK58" t="n">
-        <v>22.79</v>
-      </c>
-      <c r="AL58" t="n">
-        <v>82.9715</v>
-      </c>
-      <c r="AM58" t="n">
-        <v>204.5535</v>
-      </c>
-      <c r="AN58" t="n">
-        <v>699.1495</v>
-      </c>
+      <c r="AI58"/>
+      <c r="AJ58"/>
+      <c r="AK58"/>
+      <c r="AL58"/>
+      <c r="AM58"/>
+      <c r="AN58"/>
       <c r="AO58"/>
       <c r="AP58"/>
       <c r="AQ58"/>
@@ -16718,7 +16705,9 @@
       <c r="HO58"/>
       <c r="HP58"/>
       <c r="HQ58"/>
-      <c r="HR58"/>
+      <c r="HR58" t="n">
+        <v>539.6753417721</v>
+      </c>
       <c r="HS58"/>
       <c r="HT58"/>
       <c r="HU58"/>
@@ -16728,7 +16717,7 @@
       <c r="HY58"/>
       <c r="HZ58"/>
       <c r="IA58" t="n">
-        <v>1144.4555</v>
+        <v>539.6753417721</v>
       </c>
     </row>
     <row r="59">
@@ -16742,16 +16731,16 @@
         <v>2018</v>
       </c>
       <c r="D59" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="E59" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="F59" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G59" t="s">
-        <v>242</v>
+        <v>278</v>
       </c>
       <c r="H59" t="s">
         <v>241</v>
@@ -16782,24 +16771,12 @@
       <c r="AF59"/>
       <c r="AG59"/>
       <c r="AH59"/>
-      <c r="AI59" t="n">
-        <v>17.119</v>
-      </c>
-      <c r="AJ59" t="n">
-        <v>68.8735</v>
-      </c>
-      <c r="AK59" t="n">
-        <v>8.003</v>
-      </c>
-      <c r="AL59" t="n">
-        <v>29.097</v>
-      </c>
-      <c r="AM59" t="n">
-        <v>66.0645</v>
-      </c>
-      <c r="AN59" t="n">
-        <v>960.9165</v>
-      </c>
+      <c r="AI59"/>
+      <c r="AJ59"/>
+      <c r="AK59"/>
+      <c r="AL59"/>
+      <c r="AM59"/>
+      <c r="AN59"/>
       <c r="AO59"/>
       <c r="AP59"/>
       <c r="AQ59"/>
@@ -16986,7 +16963,9 @@
       <c r="HP59"/>
       <c r="HQ59"/>
       <c r="HR59"/>
-      <c r="HS59"/>
+      <c r="HS59" t="n">
+        <v>8419.323442671</v>
+      </c>
       <c r="HT59"/>
       <c r="HU59"/>
       <c r="HV59"/>
@@ -16995,7 +16974,7 @@
       <c r="HY59"/>
       <c r="HZ59"/>
       <c r="IA59" t="n">
-        <v>1150.0735</v>
+        <v>8419.323442671</v>
       </c>
     </row>
     <row r="60">
@@ -17009,16 +16988,16 @@
         <v>2018</v>
       </c>
       <c r="D60" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="E60" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="F60" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G60" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="H60" t="s">
         <v>241</v>
@@ -17049,24 +17028,12 @@
       <c r="AF60"/>
       <c r="AG60"/>
       <c r="AH60"/>
-      <c r="AI60" t="n">
-        <v>60.6648</v>
-      </c>
-      <c r="AJ60" t="n">
-        <v>506.072</v>
-      </c>
-      <c r="AK60" t="n">
-        <v>31.3292</v>
-      </c>
-      <c r="AL60" t="n">
-        <v>76.4876</v>
-      </c>
-      <c r="AM60" t="n">
-        <v>747.5552</v>
-      </c>
-      <c r="AN60" t="n">
-        <v>302.0136</v>
-      </c>
+      <c r="AI60"/>
+      <c r="AJ60"/>
+      <c r="AK60"/>
+      <c r="AL60"/>
+      <c r="AM60"/>
+      <c r="AN60"/>
       <c r="AO60"/>
       <c r="AP60"/>
       <c r="AQ60"/>
@@ -17254,7 +17221,9 @@
       <c r="HQ60"/>
       <c r="HR60"/>
       <c r="HS60"/>
-      <c r="HT60"/>
+      <c r="HT60" t="n">
+        <v>0.570976315855</v>
+      </c>
       <c r="HU60"/>
       <c r="HV60"/>
       <c r="HW60"/>
@@ -17262,7 +17231,7 @@
       <c r="HY60"/>
       <c r="HZ60"/>
       <c r="IA60" t="n">
-        <v>1724.1224</v>
+        <v>0.570976315855</v>
       </c>
     </row>
     <row r="61">
@@ -17276,16 +17245,16 @@
         <v>2018</v>
       </c>
       <c r="D61" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="E61" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="F61" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G61" t="s">
-        <v>245</v>
+        <v>281</v>
       </c>
       <c r="H61" t="s">
         <v>241</v>
@@ -17509,17 +17478,17 @@
       <c r="HQ61"/>
       <c r="HR61"/>
       <c r="HS61"/>
-      <c r="HT61"/>
+      <c r="HT61" t="n">
+        <v>46.5497493</v>
+      </c>
       <c r="HU61"/>
       <c r="HV61"/>
-      <c r="HW61" t="n">
-        <v>0</v>
-      </c>
+      <c r="HW61"/>
       <c r="HX61"/>
       <c r="HY61"/>
       <c r="HZ61"/>
       <c r="IA61" t="n">
-        <v>0</v>
+        <v>46.5497493</v>
       </c>
     </row>
     <row r="62">
@@ -17533,16 +17502,16 @@
         <v>2018</v>
       </c>
       <c r="D62" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="E62" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="F62" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G62" t="s">
-        <v>245</v>
+        <v>282</v>
       </c>
       <c r="H62" t="s">
         <v>241</v>
@@ -17766,17 +17735,17 @@
       <c r="HQ62"/>
       <c r="HR62"/>
       <c r="HS62"/>
-      <c r="HT62"/>
+      <c r="HT62" t="n">
+        <v>593.845</v>
+      </c>
       <c r="HU62"/>
       <c r="HV62"/>
-      <c r="HW62" t="n">
-        <v>45991.2677</v>
-      </c>
+      <c r="HW62"/>
       <c r="HX62"/>
       <c r="HY62"/>
       <c r="HZ62"/>
       <c r="IA62" t="n">
-        <v>45991.2677</v>
+        <v>593.845</v>
       </c>
     </row>
     <row r="63">
@@ -17790,16 +17759,16 @@
         <v>2018</v>
       </c>
       <c r="D63" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="E63" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="F63" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G63" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H63" t="s">
         <v>241</v>
@@ -17830,12 +17799,20 @@
       <c r="AF63"/>
       <c r="AG63"/>
       <c r="AH63"/>
-      <c r="AI63"/>
-      <c r="AJ63"/>
+      <c r="AI63" t="n">
+        <v>2790.5332</v>
+      </c>
+      <c r="AJ63" t="n">
+        <v>15688.2684</v>
+      </c>
       <c r="AK63"/>
       <c r="AL63"/>
-      <c r="AM63"/>
-      <c r="AN63"/>
+      <c r="AM63" t="n">
+        <v>17570.378</v>
+      </c>
+      <c r="AN63" t="n">
+        <v>1013.4404</v>
+      </c>
       <c r="AO63"/>
       <c r="AP63"/>
       <c r="AQ63"/>
@@ -18026,14 +18003,12 @@
       <c r="HT63"/>
       <c r="HU63"/>
       <c r="HV63"/>
-      <c r="HW63" t="n">
-        <v>0</v>
-      </c>
+      <c r="HW63"/>
       <c r="HX63"/>
       <c r="HY63"/>
       <c r="HZ63"/>
       <c r="IA63" t="n">
-        <v>0</v>
+        <v>37062.62</v>
       </c>
     </row>
     <row r="64">
@@ -18047,16 +18022,16 @@
         <v>2018</v>
       </c>
       <c r="D64" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="E64" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="F64" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G64" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="H64" t="s">
         <v>241</v>
@@ -18087,12 +18062,24 @@
       <c r="AF64"/>
       <c r="AG64"/>
       <c r="AH64"/>
-      <c r="AI64"/>
-      <c r="AJ64"/>
-      <c r="AK64"/>
-      <c r="AL64"/>
-      <c r="AM64"/>
-      <c r="AN64"/>
+      <c r="AI64" t="n">
+        <v>66.727</v>
+      </c>
+      <c r="AJ64" t="n">
+        <v>68.264</v>
+      </c>
+      <c r="AK64" t="n">
+        <v>22.79</v>
+      </c>
+      <c r="AL64" t="n">
+        <v>82.9715</v>
+      </c>
+      <c r="AM64" t="n">
+        <v>204.5535</v>
+      </c>
+      <c r="AN64" t="n">
+        <v>699.1495</v>
+      </c>
       <c r="AO64"/>
       <c r="AP64"/>
       <c r="AQ64"/>
@@ -18283,14 +18270,12 @@
       <c r="HT64"/>
       <c r="HU64"/>
       <c r="HV64"/>
-      <c r="HW64" t="n">
-        <v>0</v>
-      </c>
+      <c r="HW64"/>
       <c r="HX64"/>
       <c r="HY64"/>
       <c r="HZ64"/>
       <c r="IA64" t="n">
-        <v>0</v>
+        <v>1144.4555</v>
       </c>
     </row>
     <row r="65">
@@ -18304,16 +18289,16 @@
         <v>2018</v>
       </c>
       <c r="D65" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="E65" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="F65" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G65" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="H65" t="s">
         <v>241</v>
@@ -18344,12 +18329,24 @@
       <c r="AF65"/>
       <c r="AG65"/>
       <c r="AH65"/>
-      <c r="AI65"/>
-      <c r="AJ65"/>
-      <c r="AK65"/>
-      <c r="AL65"/>
-      <c r="AM65"/>
-      <c r="AN65"/>
+      <c r="AI65" t="n">
+        <v>17.119</v>
+      </c>
+      <c r="AJ65" t="n">
+        <v>68.8735</v>
+      </c>
+      <c r="AK65" t="n">
+        <v>8.003</v>
+      </c>
+      <c r="AL65" t="n">
+        <v>29.097</v>
+      </c>
+      <c r="AM65" t="n">
+        <v>66.0645</v>
+      </c>
+      <c r="AN65" t="n">
+        <v>960.9165</v>
+      </c>
       <c r="AO65"/>
       <c r="AP65"/>
       <c r="AQ65"/>
@@ -18540,14 +18537,12 @@
       <c r="HT65"/>
       <c r="HU65"/>
       <c r="HV65"/>
-      <c r="HW65" t="n">
-        <v>0</v>
-      </c>
+      <c r="HW65"/>
       <c r="HX65"/>
       <c r="HY65"/>
       <c r="HZ65"/>
       <c r="IA65" t="n">
-        <v>0</v>
+        <v>1150.0735</v>
       </c>
     </row>
     <row r="66">
@@ -18561,16 +18556,16 @@
         <v>2018</v>
       </c>
       <c r="D66" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="E66" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="F66" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G66" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H66" t="s">
         <v>241</v>
@@ -18601,12 +18596,24 @@
       <c r="AF66"/>
       <c r="AG66"/>
       <c r="AH66"/>
-      <c r="AI66"/>
-      <c r="AJ66"/>
-      <c r="AK66"/>
-      <c r="AL66"/>
-      <c r="AM66"/>
-      <c r="AN66"/>
+      <c r="AI66" t="n">
+        <v>60.6648</v>
+      </c>
+      <c r="AJ66" t="n">
+        <v>506.072</v>
+      </c>
+      <c r="AK66" t="n">
+        <v>31.3292</v>
+      </c>
+      <c r="AL66" t="n">
+        <v>76.4876</v>
+      </c>
+      <c r="AM66" t="n">
+        <v>747.5552</v>
+      </c>
+      <c r="AN66" t="n">
+        <v>302.0136</v>
+      </c>
       <c r="AO66"/>
       <c r="AP66"/>
       <c r="AQ66"/>
@@ -18797,14 +18804,12 @@
       <c r="HT66"/>
       <c r="HU66"/>
       <c r="HV66"/>
-      <c r="HW66" t="n">
-        <v>36.4868</v>
-      </c>
+      <c r="HW66"/>
       <c r="HX66"/>
       <c r="HY66"/>
       <c r="HZ66"/>
       <c r="IA66" t="n">
-        <v>36.4868</v>
+        <v>1724.1224</v>
       </c>
     </row>
     <row r="67">
@@ -18818,16 +18823,16 @@
         <v>2018</v>
       </c>
       <c r="D67" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="E67" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="F67" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G67" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="H67" t="s">
         <v>241</v>
@@ -19055,13 +19060,13 @@
       <c r="HU67"/>
       <c r="HV67"/>
       <c r="HW67" t="n">
-        <v>31.535</v>
+        <v>0</v>
       </c>
       <c r="HX67"/>
       <c r="HY67"/>
       <c r="HZ67"/>
       <c r="IA67" t="n">
-        <v>31.535</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -19075,30 +19080,24 @@
         <v>2018</v>
       </c>
       <c r="D68" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="E68" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="F68" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G68" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="H68" t="s">
         <v>241</v>
       </c>
-      <c r="I68" t="n">
-        <v>494.5136</v>
-      </c>
+      <c r="I68"/>
       <c r="J68"/>
-      <c r="K68" t="n">
-        <v>169.0444</v>
-      </c>
-      <c r="L68" t="n">
-        <v>1.5596</v>
-      </c>
+      <c r="K68"/>
+      <c r="L68"/>
       <c r="M68"/>
       <c r="N68"/>
       <c r="O68"/>
@@ -19109,9 +19108,7 @@
       <c r="T68"/>
       <c r="U68"/>
       <c r="V68"/>
-      <c r="W68" t="n">
-        <v>4.3456</v>
-      </c>
+      <c r="W68"/>
       <c r="X68"/>
       <c r="Y68"/>
       <c r="Z68"/>
@@ -19319,12 +19316,14 @@
       <c r="HT68"/>
       <c r="HU68"/>
       <c r="HV68"/>
-      <c r="HW68"/>
+      <c r="HW68" t="n">
+        <v>45991.2677</v>
+      </c>
       <c r="HX68"/>
       <c r="HY68"/>
       <c r="HZ68"/>
       <c r="IA68" t="n">
-        <v>669.4632</v>
+        <v>45991.2677</v>
       </c>
     </row>
     <row r="69">
@@ -19338,30 +19337,24 @@
         <v>2018</v>
       </c>
       <c r="D69" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="E69" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="F69" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G69" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="H69" t="s">
         <v>241</v>
       </c>
-      <c r="I69" t="n">
-        <v>121.3435</v>
-      </c>
+      <c r="I69"/>
       <c r="J69"/>
-      <c r="K69" t="n">
-        <v>41.4725</v>
-      </c>
-      <c r="L69" t="n">
-        <v>0.371</v>
-      </c>
+      <c r="K69"/>
+      <c r="L69"/>
       <c r="M69"/>
       <c r="N69"/>
       <c r="O69"/>
@@ -19372,9 +19365,7 @@
       <c r="T69"/>
       <c r="U69"/>
       <c r="V69"/>
-      <c r="W69" t="n">
-        <v>1.06</v>
-      </c>
+      <c r="W69"/>
       <c r="X69"/>
       <c r="Y69"/>
       <c r="Z69"/>
@@ -19582,12 +19573,14 @@
       <c r="HT69"/>
       <c r="HU69"/>
       <c r="HV69"/>
-      <c r="HW69"/>
+      <c r="HW69" t="n">
+        <v>0</v>
+      </c>
       <c r="HX69"/>
       <c r="HY69"/>
       <c r="HZ69"/>
       <c r="IA69" t="n">
-        <v>164.247</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -19601,16 +19594,16 @@
         <v>2018</v>
       </c>
       <c r="D70" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="E70" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="F70" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G70" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="H70" t="s">
         <v>241</v>
@@ -19837,14 +19830,14 @@
       <c r="HT70"/>
       <c r="HU70"/>
       <c r="HV70"/>
-      <c r="HW70"/>
-      <c r="HX70" t="n">
-        <v>1078.8708</v>
-      </c>
+      <c r="HW70" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX70"/>
       <c r="HY70"/>
       <c r="HZ70"/>
       <c r="IA70" t="n">
-        <v>1078.8708</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -19858,13 +19851,13 @@
         <v>2018</v>
       </c>
       <c r="D71" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="E71" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="F71" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G71" t="s">
         <v>242</v>
@@ -20094,14 +20087,14 @@
       <c r="HT71"/>
       <c r="HU71"/>
       <c r="HV71"/>
-      <c r="HW71"/>
-      <c r="HX71" t="n">
-        <v>932.2965</v>
-      </c>
+      <c r="HW71" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX71"/>
       <c r="HY71"/>
       <c r="HZ71"/>
       <c r="IA71" t="n">
-        <v>932.2965</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -20115,13 +20108,13 @@
         <v>2018</v>
       </c>
       <c r="D72" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="E72" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="F72" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G72" t="s">
         <v>242</v>
@@ -20191,9 +20184,7 @@
       <c r="BP72"/>
       <c r="BQ72"/>
       <c r="BR72"/>
-      <c r="BS72" t="n">
-        <v>2407.9225</v>
-      </c>
+      <c r="BS72"/>
       <c r="BT72"/>
       <c r="BU72"/>
       <c r="BV72"/>
@@ -20353,12 +20344,14 @@
       <c r="HT72"/>
       <c r="HU72"/>
       <c r="HV72"/>
-      <c r="HW72"/>
+      <c r="HW72" t="n">
+        <v>36.4868</v>
+      </c>
       <c r="HX72"/>
       <c r="HY72"/>
       <c r="HZ72"/>
       <c r="IA72" t="n">
-        <v>2407.9225</v>
+        <v>36.4868</v>
       </c>
     </row>
     <row r="73">
@@ -20372,16 +20365,16 @@
         <v>2018</v>
       </c>
       <c r="D73" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="E73" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="F73" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G73" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H73" t="s">
         <v>241</v>
@@ -20608,14 +20601,14 @@
       <c r="HT73"/>
       <c r="HU73"/>
       <c r="HV73"/>
-      <c r="HW73"/>
-      <c r="HX73" t="n">
-        <v>0</v>
-      </c>
+      <c r="HW73" t="n">
+        <v>31.535</v>
+      </c>
+      <c r="HX73"/>
       <c r="HY73"/>
       <c r="HZ73"/>
       <c r="IA73" t="n">
-        <v>0</v>
+        <v>31.535</v>
       </c>
     </row>
     <row r="74">
@@ -20629,13 +20622,13 @@
         <v>2018</v>
       </c>
       <c r="D74" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="E74" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="F74" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G74" t="s">
         <v>242</v>
@@ -20643,10 +20636,16 @@
       <c r="H74" t="s">
         <v>241</v>
       </c>
-      <c r="I74"/>
+      <c r="I74" t="n">
+        <v>494.5136</v>
+      </c>
       <c r="J74"/>
-      <c r="K74"/>
-      <c r="L74"/>
+      <c r="K74" t="n">
+        <v>169.0444</v>
+      </c>
+      <c r="L74" t="n">
+        <v>1.5596</v>
+      </c>
       <c r="M74"/>
       <c r="N74"/>
       <c r="O74"/>
@@ -20657,7 +20656,9 @@
       <c r="T74"/>
       <c r="U74"/>
       <c r="V74"/>
-      <c r="W74"/>
+      <c r="W74" t="n">
+        <v>4.3456</v>
+      </c>
       <c r="X74"/>
       <c r="Y74"/>
       <c r="Z74"/>
@@ -20669,24 +20670,12 @@
       <c r="AF74"/>
       <c r="AG74"/>
       <c r="AH74"/>
-      <c r="AI74" t="n">
-        <v>1133.1665</v>
-      </c>
-      <c r="AJ74" t="n">
-        <v>7006.706</v>
-      </c>
-      <c r="AK74" t="n">
-        <v>165.36</v>
-      </c>
-      <c r="AL74" t="n">
-        <v>601.8945</v>
-      </c>
-      <c r="AM74" t="n">
-        <v>10244.9265</v>
-      </c>
-      <c r="AN74" t="n">
-        <v>253.3665</v>
-      </c>
+      <c r="AI74"/>
+      <c r="AJ74"/>
+      <c r="AK74"/>
+      <c r="AL74"/>
+      <c r="AM74"/>
+      <c r="AN74"/>
       <c r="AO74"/>
       <c r="AP74"/>
       <c r="AQ74"/>
@@ -20882,7 +20871,7 @@
       <c r="HY74"/>
       <c r="HZ74"/>
       <c r="IA74" t="n">
-        <v>19405.42</v>
+        <v>669.4632</v>
       </c>
     </row>
     <row r="75">
@@ -20896,26 +20885,30 @@
         <v>2018</v>
       </c>
       <c r="D75" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="E75" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="F75" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G75" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="H75" t="s">
         <v>241</v>
       </c>
-      <c r="I75"/>
+      <c r="I75" t="n">
+        <v>121.3435</v>
+      </c>
       <c r="J75"/>
       <c r="K75" t="n">
-        <v>12462.576</v>
-      </c>
-      <c r="L75"/>
+        <v>41.4725</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0.371</v>
+      </c>
       <c r="M75"/>
       <c r="N75"/>
       <c r="O75"/>
@@ -20926,7 +20919,9 @@
       <c r="T75"/>
       <c r="U75"/>
       <c r="V75"/>
-      <c r="W75"/>
+      <c r="W75" t="n">
+        <v>1.06</v>
+      </c>
       <c r="X75"/>
       <c r="Y75"/>
       <c r="Z75"/>
@@ -21139,7 +21134,7 @@
       <c r="HY75"/>
       <c r="HZ75"/>
       <c r="IA75" t="n">
-        <v>12462.576</v>
+        <v>164.247</v>
       </c>
     </row>
     <row r="76">
@@ -21153,13 +21148,13 @@
         <v>2018</v>
       </c>
       <c r="D76" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="E76" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="F76" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G76" t="s">
         <v>242</v>
@@ -21167,30 +21162,16 @@
       <c r="H76" t="s">
         <v>241</v>
       </c>
-      <c r="I76" t="n">
-        <v>556.659</v>
-      </c>
-      <c r="J76" t="n">
-        <v>537.791</v>
-      </c>
-      <c r="K76" t="n">
-        <v>825.104</v>
-      </c>
-      <c r="L76" t="n">
-        <v>6.307</v>
-      </c>
-      <c r="M76" t="n">
-        <v>114.4005</v>
-      </c>
-      <c r="N76" t="n">
-        <v>71.0465</v>
-      </c>
+      <c r="I76"/>
+      <c r="J76"/>
+      <c r="K76"/>
+      <c r="L76"/>
+      <c r="M76"/>
+      <c r="N76"/>
       <c r="O76"/>
       <c r="P76"/>
       <c r="Q76"/>
-      <c r="R76" t="n">
-        <v>41.658</v>
-      </c>
+      <c r="R76"/>
       <c r="S76"/>
       <c r="T76"/>
       <c r="U76"/>
@@ -21404,11 +21385,13 @@
       <c r="HU76"/>
       <c r="HV76"/>
       <c r="HW76"/>
-      <c r="HX76"/>
+      <c r="HX76" t="n">
+        <v>1078.8708</v>
+      </c>
       <c r="HY76"/>
       <c r="HZ76"/>
       <c r="IA76" t="n">
-        <v>2152.966</v>
+        <v>1078.8708</v>
       </c>
     </row>
     <row r="77">
@@ -21422,16 +21405,16 @@
         <v>2018</v>
       </c>
       <c r="D77" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="E77" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="F77" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G77" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="H77" t="s">
         <v>241</v>
@@ -21507,9 +21490,7 @@
       <c r="BY77"/>
       <c r="BZ77"/>
       <c r="CA77"/>
-      <c r="CB77" t="n">
-        <v>13585.7316032528</v>
-      </c>
+      <c r="CB77"/>
       <c r="CC77"/>
       <c r="CD77"/>
       <c r="CE77"/>
@@ -21661,11 +21642,13 @@
       <c r="HU77"/>
       <c r="HV77"/>
       <c r="HW77"/>
-      <c r="HX77"/>
+      <c r="HX77" t="n">
+        <v>932.2965</v>
+      </c>
       <c r="HY77"/>
       <c r="HZ77"/>
       <c r="IA77" t="n">
-        <v>13585.7316032528</v>
+        <v>932.2965</v>
       </c>
     </row>
     <row r="78">
@@ -21679,16 +21662,16 @@
         <v>2018</v>
       </c>
       <c r="D78" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="E78" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="F78" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G78" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="H78" t="s">
         <v>241</v>
@@ -21755,7 +21738,9 @@
       <c r="BP78"/>
       <c r="BQ78"/>
       <c r="BR78"/>
-      <c r="BS78"/>
+      <c r="BS78" t="n">
+        <v>2407.9225</v>
+      </c>
       <c r="BT78"/>
       <c r="BU78"/>
       <c r="BV78"/>
@@ -21764,9 +21749,7 @@
       <c r="BY78"/>
       <c r="BZ78"/>
       <c r="CA78"/>
-      <c r="CB78" t="n">
-        <v>151.4856</v>
-      </c>
+      <c r="CB78"/>
       <c r="CC78"/>
       <c r="CD78"/>
       <c r="CE78"/>
@@ -21922,7 +21905,7 @@
       <c r="HY78"/>
       <c r="HZ78"/>
       <c r="IA78" t="n">
-        <v>151.4856</v>
+        <v>2407.9225</v>
       </c>
     </row>
     <row r="79">
@@ -21936,16 +21919,16 @@
         <v>2018</v>
       </c>
       <c r="D79" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="E79" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="F79" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G79" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="H79" t="s">
         <v>241</v>
@@ -22021,9 +22004,7 @@
       <c r="BY79"/>
       <c r="BZ79"/>
       <c r="CA79"/>
-      <c r="CB79" t="n">
-        <v>12013.0905753432</v>
-      </c>
+      <c r="CB79"/>
       <c r="CC79"/>
       <c r="CD79"/>
       <c r="CE79"/>
@@ -22175,11 +22156,13 @@
       <c r="HU79"/>
       <c r="HV79"/>
       <c r="HW79"/>
-      <c r="HX79"/>
+      <c r="HX79" t="n">
+        <v>0</v>
+      </c>
       <c r="HY79"/>
       <c r="HZ79"/>
       <c r="IA79" t="n">
-        <v>12013.0905753432</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -22193,16 +22176,16 @@
         <v>2018</v>
       </c>
       <c r="D80" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E80" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="F80" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G80" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H80" t="s">
         <v>241</v>
@@ -22233,12 +22216,24 @@
       <c r="AF80"/>
       <c r="AG80"/>
       <c r="AH80"/>
-      <c r="AI80"/>
-      <c r="AJ80"/>
-      <c r="AK80"/>
-      <c r="AL80"/>
-      <c r="AM80"/>
-      <c r="AN80"/>
+      <c r="AI80" t="n">
+        <v>1133.1665</v>
+      </c>
+      <c r="AJ80" t="n">
+        <v>7006.706</v>
+      </c>
+      <c r="AK80" t="n">
+        <v>165.36</v>
+      </c>
+      <c r="AL80" t="n">
+        <v>601.8945</v>
+      </c>
+      <c r="AM80" t="n">
+        <v>10244.9265</v>
+      </c>
+      <c r="AN80" t="n">
+        <v>253.3665</v>
+      </c>
       <c r="AO80"/>
       <c r="AP80"/>
       <c r="AQ80"/>
@@ -22278,9 +22273,7 @@
       <c r="BY80"/>
       <c r="BZ80"/>
       <c r="CA80"/>
-      <c r="CB80" t="n">
-        <v>1955.86029935237</v>
-      </c>
+      <c r="CB80"/>
       <c r="CC80"/>
       <c r="CD80"/>
       <c r="CE80"/>
@@ -22436,7 +22429,7 @@
       <c r="HY80"/>
       <c r="HZ80"/>
       <c r="IA80" t="n">
-        <v>1955.86029935237</v>
+        <v>19405.42</v>
       </c>
     </row>
     <row r="81">
@@ -22450,13 +22443,13 @@
         <v>2018</v>
       </c>
       <c r="D81" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="E81" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="F81" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G81" t="s">
         <v>242</v>
@@ -22466,7 +22459,9 @@
       </c>
       <c r="I81"/>
       <c r="J81"/>
-      <c r="K81"/>
+      <c r="K81" t="n">
+        <v>12462.576</v>
+      </c>
       <c r="L81"/>
       <c r="M81"/>
       <c r="N81"/>
@@ -22684,15 +22679,1567 @@
       <c r="HR81"/>
       <c r="HS81"/>
       <c r="HT81"/>
-      <c r="HU81" t="n">
-        <v>3556.36366010438</v>
-      </c>
+      <c r="HU81"/>
       <c r="HV81"/>
       <c r="HW81"/>
       <c r="HX81"/>
       <c r="HY81"/>
       <c r="HZ81"/>
       <c r="IA81" t="n">
+        <v>12462.576</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>235</v>
+      </c>
+      <c r="B82" t="s">
+        <v>236</v>
+      </c>
+      <c r="C82" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D82" t="s">
+        <v>315</v>
+      </c>
+      <c r="E82" t="s">
+        <v>316</v>
+      </c>
+      <c r="F82" t="s">
+        <v>260</v>
+      </c>
+      <c r="G82" t="s">
+        <v>243</v>
+      </c>
+      <c r="H82" t="s">
+        <v>241</v>
+      </c>
+      <c r="I82" t="n">
+        <v>556.659</v>
+      </c>
+      <c r="J82" t="n">
+        <v>537.791</v>
+      </c>
+      <c r="K82" t="n">
+        <v>825.104</v>
+      </c>
+      <c r="L82" t="n">
+        <v>6.307</v>
+      </c>
+      <c r="M82" t="n">
+        <v>114.4005</v>
+      </c>
+      <c r="N82" t="n">
+        <v>71.0465</v>
+      </c>
+      <c r="O82"/>
+      <c r="P82"/>
+      <c r="Q82"/>
+      <c r="R82" t="n">
+        <v>41.658</v>
+      </c>
+      <c r="S82"/>
+      <c r="T82"/>
+      <c r="U82"/>
+      <c r="V82"/>
+      <c r="W82"/>
+      <c r="X82"/>
+      <c r="Y82"/>
+      <c r="Z82"/>
+      <c r="AA82"/>
+      <c r="AB82"/>
+      <c r="AC82"/>
+      <c r="AD82"/>
+      <c r="AE82"/>
+      <c r="AF82"/>
+      <c r="AG82"/>
+      <c r="AH82"/>
+      <c r="AI82"/>
+      <c r="AJ82"/>
+      <c r="AK82"/>
+      <c r="AL82"/>
+      <c r="AM82"/>
+      <c r="AN82"/>
+      <c r="AO82"/>
+      <c r="AP82"/>
+      <c r="AQ82"/>
+      <c r="AR82"/>
+      <c r="AS82"/>
+      <c r="AT82"/>
+      <c r="AU82"/>
+      <c r="AV82"/>
+      <c r="AW82"/>
+      <c r="AX82"/>
+      <c r="AY82"/>
+      <c r="AZ82"/>
+      <c r="BA82"/>
+      <c r="BB82"/>
+      <c r="BC82"/>
+      <c r="BD82"/>
+      <c r="BE82"/>
+      <c r="BF82"/>
+      <c r="BG82"/>
+      <c r="BH82"/>
+      <c r="BI82"/>
+      <c r="BJ82"/>
+      <c r="BK82"/>
+      <c r="BL82"/>
+      <c r="BM82"/>
+      <c r="BN82"/>
+      <c r="BO82"/>
+      <c r="BP82"/>
+      <c r="BQ82"/>
+      <c r="BR82"/>
+      <c r="BS82"/>
+      <c r="BT82"/>
+      <c r="BU82"/>
+      <c r="BV82"/>
+      <c r="BW82"/>
+      <c r="BX82"/>
+      <c r="BY82"/>
+      <c r="BZ82"/>
+      <c r="CA82"/>
+      <c r="CB82"/>
+      <c r="CC82"/>
+      <c r="CD82"/>
+      <c r="CE82"/>
+      <c r="CF82"/>
+      <c r="CG82"/>
+      <c r="CH82"/>
+      <c r="CI82"/>
+      <c r="CJ82"/>
+      <c r="CK82"/>
+      <c r="CL82"/>
+      <c r="CM82"/>
+      <c r="CN82"/>
+      <c r="CO82"/>
+      <c r="CP82"/>
+      <c r="CQ82"/>
+      <c r="CR82"/>
+      <c r="CS82"/>
+      <c r="CT82"/>
+      <c r="CU82"/>
+      <c r="CV82"/>
+      <c r="CW82"/>
+      <c r="CX82"/>
+      <c r="CY82"/>
+      <c r="CZ82"/>
+      <c r="DA82"/>
+      <c r="DB82"/>
+      <c r="DC82"/>
+      <c r="DD82"/>
+      <c r="DE82"/>
+      <c r="DF82"/>
+      <c r="DG82"/>
+      <c r="DH82"/>
+      <c r="DI82"/>
+      <c r="DJ82"/>
+      <c r="DK82"/>
+      <c r="DL82"/>
+      <c r="DM82"/>
+      <c r="DN82"/>
+      <c r="DO82"/>
+      <c r="DP82"/>
+      <c r="DQ82"/>
+      <c r="DR82"/>
+      <c r="DS82"/>
+      <c r="DT82"/>
+      <c r="DU82"/>
+      <c r="DV82"/>
+      <c r="DW82"/>
+      <c r="DX82"/>
+      <c r="DY82"/>
+      <c r="DZ82"/>
+      <c r="EA82"/>
+      <c r="EB82"/>
+      <c r="EC82"/>
+      <c r="ED82"/>
+      <c r="EE82"/>
+      <c r="EF82"/>
+      <c r="EG82"/>
+      <c r="EH82"/>
+      <c r="EI82"/>
+      <c r="EJ82"/>
+      <c r="EK82"/>
+      <c r="EL82"/>
+      <c r="EM82"/>
+      <c r="EN82"/>
+      <c r="EO82"/>
+      <c r="EP82"/>
+      <c r="EQ82"/>
+      <c r="ER82"/>
+      <c r="ES82"/>
+      <c r="ET82"/>
+      <c r="EU82"/>
+      <c r="EV82"/>
+      <c r="EW82"/>
+      <c r="EX82"/>
+      <c r="EY82"/>
+      <c r="EZ82"/>
+      <c r="FA82"/>
+      <c r="FB82"/>
+      <c r="FC82"/>
+      <c r="FD82"/>
+      <c r="FE82"/>
+      <c r="FF82"/>
+      <c r="FG82"/>
+      <c r="FH82"/>
+      <c r="FI82"/>
+      <c r="FJ82"/>
+      <c r="FK82"/>
+      <c r="FL82"/>
+      <c r="FM82"/>
+      <c r="FN82"/>
+      <c r="FO82"/>
+      <c r="FP82"/>
+      <c r="FQ82"/>
+      <c r="FR82"/>
+      <c r="FS82"/>
+      <c r="FT82"/>
+      <c r="FU82"/>
+      <c r="FV82"/>
+      <c r="FW82"/>
+      <c r="FX82"/>
+      <c r="FY82"/>
+      <c r="FZ82"/>
+      <c r="GA82"/>
+      <c r="GB82"/>
+      <c r="GC82"/>
+      <c r="GD82"/>
+      <c r="GE82"/>
+      <c r="GF82"/>
+      <c r="GG82"/>
+      <c r="GH82"/>
+      <c r="GI82"/>
+      <c r="GJ82"/>
+      <c r="GK82"/>
+      <c r="GL82"/>
+      <c r="GM82"/>
+      <c r="GN82"/>
+      <c r="GO82"/>
+      <c r="GP82"/>
+      <c r="GQ82"/>
+      <c r="GR82"/>
+      <c r="GS82"/>
+      <c r="GT82"/>
+      <c r="GU82"/>
+      <c r="GV82"/>
+      <c r="GW82"/>
+      <c r="GX82"/>
+      <c r="GY82"/>
+      <c r="GZ82"/>
+      <c r="HA82"/>
+      <c r="HB82"/>
+      <c r="HC82"/>
+      <c r="HD82"/>
+      <c r="HE82"/>
+      <c r="HF82"/>
+      <c r="HG82"/>
+      <c r="HH82"/>
+      <c r="HI82"/>
+      <c r="HJ82"/>
+      <c r="HK82"/>
+      <c r="HL82"/>
+      <c r="HM82"/>
+      <c r="HN82"/>
+      <c r="HO82"/>
+      <c r="HP82"/>
+      <c r="HQ82"/>
+      <c r="HR82"/>
+      <c r="HS82"/>
+      <c r="HT82"/>
+      <c r="HU82"/>
+      <c r="HV82"/>
+      <c r="HW82"/>
+      <c r="HX82"/>
+      <c r="HY82"/>
+      <c r="HZ82"/>
+      <c r="IA82" t="n">
+        <v>2152.966</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>235</v>
+      </c>
+      <c r="B83" t="s">
+        <v>236</v>
+      </c>
+      <c r="C83" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D83" t="s">
+        <v>317</v>
+      </c>
+      <c r="E83" t="s">
+        <v>318</v>
+      </c>
+      <c r="F83" t="s">
+        <v>260</v>
+      </c>
+      <c r="G83" t="s">
+        <v>242</v>
+      </c>
+      <c r="H83" t="s">
+        <v>241</v>
+      </c>
+      <c r="I83"/>
+      <c r="J83"/>
+      <c r="K83"/>
+      <c r="L83"/>
+      <c r="M83"/>
+      <c r="N83"/>
+      <c r="O83"/>
+      <c r="P83"/>
+      <c r="Q83"/>
+      <c r="R83"/>
+      <c r="S83"/>
+      <c r="T83"/>
+      <c r="U83"/>
+      <c r="V83"/>
+      <c r="W83"/>
+      <c r="X83"/>
+      <c r="Y83"/>
+      <c r="Z83"/>
+      <c r="AA83"/>
+      <c r="AB83"/>
+      <c r="AC83"/>
+      <c r="AD83"/>
+      <c r="AE83"/>
+      <c r="AF83"/>
+      <c r="AG83"/>
+      <c r="AH83"/>
+      <c r="AI83"/>
+      <c r="AJ83"/>
+      <c r="AK83"/>
+      <c r="AL83"/>
+      <c r="AM83"/>
+      <c r="AN83"/>
+      <c r="AO83"/>
+      <c r="AP83"/>
+      <c r="AQ83"/>
+      <c r="AR83"/>
+      <c r="AS83"/>
+      <c r="AT83"/>
+      <c r="AU83"/>
+      <c r="AV83"/>
+      <c r="AW83"/>
+      <c r="AX83"/>
+      <c r="AY83"/>
+      <c r="AZ83"/>
+      <c r="BA83"/>
+      <c r="BB83"/>
+      <c r="BC83"/>
+      <c r="BD83"/>
+      <c r="BE83"/>
+      <c r="BF83"/>
+      <c r="BG83"/>
+      <c r="BH83"/>
+      <c r="BI83"/>
+      <c r="BJ83"/>
+      <c r="BK83"/>
+      <c r="BL83"/>
+      <c r="BM83"/>
+      <c r="BN83"/>
+      <c r="BO83"/>
+      <c r="BP83"/>
+      <c r="BQ83"/>
+      <c r="BR83"/>
+      <c r="BS83"/>
+      <c r="BT83"/>
+      <c r="BU83"/>
+      <c r="BV83"/>
+      <c r="BW83"/>
+      <c r="BX83"/>
+      <c r="BY83"/>
+      <c r="BZ83"/>
+      <c r="CA83"/>
+      <c r="CB83" t="n">
+        <v>13585.7316032528</v>
+      </c>
+      <c r="CC83"/>
+      <c r="CD83"/>
+      <c r="CE83"/>
+      <c r="CF83"/>
+      <c r="CG83"/>
+      <c r="CH83"/>
+      <c r="CI83"/>
+      <c r="CJ83"/>
+      <c r="CK83"/>
+      <c r="CL83"/>
+      <c r="CM83"/>
+      <c r="CN83"/>
+      <c r="CO83"/>
+      <c r="CP83"/>
+      <c r="CQ83"/>
+      <c r="CR83"/>
+      <c r="CS83"/>
+      <c r="CT83"/>
+      <c r="CU83"/>
+      <c r="CV83"/>
+      <c r="CW83"/>
+      <c r="CX83"/>
+      <c r="CY83"/>
+      <c r="CZ83"/>
+      <c r="DA83"/>
+      <c r="DB83"/>
+      <c r="DC83"/>
+      <c r="DD83"/>
+      <c r="DE83"/>
+      <c r="DF83"/>
+      <c r="DG83"/>
+      <c r="DH83"/>
+      <c r="DI83"/>
+      <c r="DJ83"/>
+      <c r="DK83"/>
+      <c r="DL83"/>
+      <c r="DM83"/>
+      <c r="DN83"/>
+      <c r="DO83"/>
+      <c r="DP83"/>
+      <c r="DQ83"/>
+      <c r="DR83"/>
+      <c r="DS83"/>
+      <c r="DT83"/>
+      <c r="DU83"/>
+      <c r="DV83"/>
+      <c r="DW83"/>
+      <c r="DX83"/>
+      <c r="DY83"/>
+      <c r="DZ83"/>
+      <c r="EA83"/>
+      <c r="EB83"/>
+      <c r="EC83"/>
+      <c r="ED83"/>
+      <c r="EE83"/>
+      <c r="EF83"/>
+      <c r="EG83"/>
+      <c r="EH83"/>
+      <c r="EI83"/>
+      <c r="EJ83"/>
+      <c r="EK83"/>
+      <c r="EL83"/>
+      <c r="EM83"/>
+      <c r="EN83"/>
+      <c r="EO83"/>
+      <c r="EP83"/>
+      <c r="EQ83"/>
+      <c r="ER83"/>
+      <c r="ES83"/>
+      <c r="ET83"/>
+      <c r="EU83"/>
+      <c r="EV83"/>
+      <c r="EW83"/>
+      <c r="EX83"/>
+      <c r="EY83"/>
+      <c r="EZ83"/>
+      <c r="FA83"/>
+      <c r="FB83"/>
+      <c r="FC83"/>
+      <c r="FD83"/>
+      <c r="FE83"/>
+      <c r="FF83"/>
+      <c r="FG83"/>
+      <c r="FH83"/>
+      <c r="FI83"/>
+      <c r="FJ83"/>
+      <c r="FK83"/>
+      <c r="FL83"/>
+      <c r="FM83"/>
+      <c r="FN83"/>
+      <c r="FO83"/>
+      <c r="FP83"/>
+      <c r="FQ83"/>
+      <c r="FR83"/>
+      <c r="FS83"/>
+      <c r="FT83"/>
+      <c r="FU83"/>
+      <c r="FV83"/>
+      <c r="FW83"/>
+      <c r="FX83"/>
+      <c r="FY83"/>
+      <c r="FZ83"/>
+      <c r="GA83"/>
+      <c r="GB83"/>
+      <c r="GC83"/>
+      <c r="GD83"/>
+      <c r="GE83"/>
+      <c r="GF83"/>
+      <c r="GG83"/>
+      <c r="GH83"/>
+      <c r="GI83"/>
+      <c r="GJ83"/>
+      <c r="GK83"/>
+      <c r="GL83"/>
+      <c r="GM83"/>
+      <c r="GN83"/>
+      <c r="GO83"/>
+      <c r="GP83"/>
+      <c r="GQ83"/>
+      <c r="GR83"/>
+      <c r="GS83"/>
+      <c r="GT83"/>
+      <c r="GU83"/>
+      <c r="GV83"/>
+      <c r="GW83"/>
+      <c r="GX83"/>
+      <c r="GY83"/>
+      <c r="GZ83"/>
+      <c r="HA83"/>
+      <c r="HB83"/>
+      <c r="HC83"/>
+      <c r="HD83"/>
+      <c r="HE83"/>
+      <c r="HF83"/>
+      <c r="HG83"/>
+      <c r="HH83"/>
+      <c r="HI83"/>
+      <c r="HJ83"/>
+      <c r="HK83"/>
+      <c r="HL83"/>
+      <c r="HM83"/>
+      <c r="HN83"/>
+      <c r="HO83"/>
+      <c r="HP83"/>
+      <c r="HQ83"/>
+      <c r="HR83"/>
+      <c r="HS83"/>
+      <c r="HT83"/>
+      <c r="HU83"/>
+      <c r="HV83"/>
+      <c r="HW83"/>
+      <c r="HX83"/>
+      <c r="HY83"/>
+      <c r="HZ83"/>
+      <c r="IA83" t="n">
+        <v>13585.7316032528</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>235</v>
+      </c>
+      <c r="B84" t="s">
+        <v>236</v>
+      </c>
+      <c r="C84" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D84" t="s">
+        <v>319</v>
+      </c>
+      <c r="E84" t="s">
+        <v>320</v>
+      </c>
+      <c r="F84" t="s">
+        <v>260</v>
+      </c>
+      <c r="G84" t="s">
+        <v>242</v>
+      </c>
+      <c r="H84" t="s">
+        <v>241</v>
+      </c>
+      <c r="I84"/>
+      <c r="J84"/>
+      <c r="K84"/>
+      <c r="L84"/>
+      <c r="M84"/>
+      <c r="N84"/>
+      <c r="O84"/>
+      <c r="P84"/>
+      <c r="Q84"/>
+      <c r="R84"/>
+      <c r="S84"/>
+      <c r="T84"/>
+      <c r="U84"/>
+      <c r="V84"/>
+      <c r="W84"/>
+      <c r="X84"/>
+      <c r="Y84"/>
+      <c r="Z84"/>
+      <c r="AA84"/>
+      <c r="AB84"/>
+      <c r="AC84"/>
+      <c r="AD84"/>
+      <c r="AE84"/>
+      <c r="AF84"/>
+      <c r="AG84"/>
+      <c r="AH84"/>
+      <c r="AI84"/>
+      <c r="AJ84"/>
+      <c r="AK84"/>
+      <c r="AL84"/>
+      <c r="AM84"/>
+      <c r="AN84"/>
+      <c r="AO84"/>
+      <c r="AP84"/>
+      <c r="AQ84"/>
+      <c r="AR84"/>
+      <c r="AS84"/>
+      <c r="AT84"/>
+      <c r="AU84"/>
+      <c r="AV84"/>
+      <c r="AW84"/>
+      <c r="AX84"/>
+      <c r="AY84"/>
+      <c r="AZ84"/>
+      <c r="BA84"/>
+      <c r="BB84"/>
+      <c r="BC84"/>
+      <c r="BD84"/>
+      <c r="BE84"/>
+      <c r="BF84"/>
+      <c r="BG84"/>
+      <c r="BH84"/>
+      <c r="BI84"/>
+      <c r="BJ84"/>
+      <c r="BK84"/>
+      <c r="BL84"/>
+      <c r="BM84"/>
+      <c r="BN84"/>
+      <c r="BO84"/>
+      <c r="BP84"/>
+      <c r="BQ84"/>
+      <c r="BR84"/>
+      <c r="BS84"/>
+      <c r="BT84"/>
+      <c r="BU84"/>
+      <c r="BV84"/>
+      <c r="BW84"/>
+      <c r="BX84"/>
+      <c r="BY84"/>
+      <c r="BZ84"/>
+      <c r="CA84"/>
+      <c r="CB84" t="n">
+        <v>151.4856</v>
+      </c>
+      <c r="CC84"/>
+      <c r="CD84"/>
+      <c r="CE84"/>
+      <c r="CF84"/>
+      <c r="CG84"/>
+      <c r="CH84"/>
+      <c r="CI84"/>
+      <c r="CJ84"/>
+      <c r="CK84"/>
+      <c r="CL84"/>
+      <c r="CM84"/>
+      <c r="CN84"/>
+      <c r="CO84"/>
+      <c r="CP84"/>
+      <c r="CQ84"/>
+      <c r="CR84"/>
+      <c r="CS84"/>
+      <c r="CT84"/>
+      <c r="CU84"/>
+      <c r="CV84"/>
+      <c r="CW84"/>
+      <c r="CX84"/>
+      <c r="CY84"/>
+      <c r="CZ84"/>
+      <c r="DA84"/>
+      <c r="DB84"/>
+      <c r="DC84"/>
+      <c r="DD84"/>
+      <c r="DE84"/>
+      <c r="DF84"/>
+      <c r="DG84"/>
+      <c r="DH84"/>
+      <c r="DI84"/>
+      <c r="DJ84"/>
+      <c r="DK84"/>
+      <c r="DL84"/>
+      <c r="DM84"/>
+      <c r="DN84"/>
+      <c r="DO84"/>
+      <c r="DP84"/>
+      <c r="DQ84"/>
+      <c r="DR84"/>
+      <c r="DS84"/>
+      <c r="DT84"/>
+      <c r="DU84"/>
+      <c r="DV84"/>
+      <c r="DW84"/>
+      <c r="DX84"/>
+      <c r="DY84"/>
+      <c r="DZ84"/>
+      <c r="EA84"/>
+      <c r="EB84"/>
+      <c r="EC84"/>
+      <c r="ED84"/>
+      <c r="EE84"/>
+      <c r="EF84"/>
+      <c r="EG84"/>
+      <c r="EH84"/>
+      <c r="EI84"/>
+      <c r="EJ84"/>
+      <c r="EK84"/>
+      <c r="EL84"/>
+      <c r="EM84"/>
+      <c r="EN84"/>
+      <c r="EO84"/>
+      <c r="EP84"/>
+      <c r="EQ84"/>
+      <c r="ER84"/>
+      <c r="ES84"/>
+      <c r="ET84"/>
+      <c r="EU84"/>
+      <c r="EV84"/>
+      <c r="EW84"/>
+      <c r="EX84"/>
+      <c r="EY84"/>
+      <c r="EZ84"/>
+      <c r="FA84"/>
+      <c r="FB84"/>
+      <c r="FC84"/>
+      <c r="FD84"/>
+      <c r="FE84"/>
+      <c r="FF84"/>
+      <c r="FG84"/>
+      <c r="FH84"/>
+      <c r="FI84"/>
+      <c r="FJ84"/>
+      <c r="FK84"/>
+      <c r="FL84"/>
+      <c r="FM84"/>
+      <c r="FN84"/>
+      <c r="FO84"/>
+      <c r="FP84"/>
+      <c r="FQ84"/>
+      <c r="FR84"/>
+      <c r="FS84"/>
+      <c r="FT84"/>
+      <c r="FU84"/>
+      <c r="FV84"/>
+      <c r="FW84"/>
+      <c r="FX84"/>
+      <c r="FY84"/>
+      <c r="FZ84"/>
+      <c r="GA84"/>
+      <c r="GB84"/>
+      <c r="GC84"/>
+      <c r="GD84"/>
+      <c r="GE84"/>
+      <c r="GF84"/>
+      <c r="GG84"/>
+      <c r="GH84"/>
+      <c r="GI84"/>
+      <c r="GJ84"/>
+      <c r="GK84"/>
+      <c r="GL84"/>
+      <c r="GM84"/>
+      <c r="GN84"/>
+      <c r="GO84"/>
+      <c r="GP84"/>
+      <c r="GQ84"/>
+      <c r="GR84"/>
+      <c r="GS84"/>
+      <c r="GT84"/>
+      <c r="GU84"/>
+      <c r="GV84"/>
+      <c r="GW84"/>
+      <c r="GX84"/>
+      <c r="GY84"/>
+      <c r="GZ84"/>
+      <c r="HA84"/>
+      <c r="HB84"/>
+      <c r="HC84"/>
+      <c r="HD84"/>
+      <c r="HE84"/>
+      <c r="HF84"/>
+      <c r="HG84"/>
+      <c r="HH84"/>
+      <c r="HI84"/>
+      <c r="HJ84"/>
+      <c r="HK84"/>
+      <c r="HL84"/>
+      <c r="HM84"/>
+      <c r="HN84"/>
+      <c r="HO84"/>
+      <c r="HP84"/>
+      <c r="HQ84"/>
+      <c r="HR84"/>
+      <c r="HS84"/>
+      <c r="HT84"/>
+      <c r="HU84"/>
+      <c r="HV84"/>
+      <c r="HW84"/>
+      <c r="HX84"/>
+      <c r="HY84"/>
+      <c r="HZ84"/>
+      <c r="IA84" t="n">
+        <v>151.4856</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>235</v>
+      </c>
+      <c r="B85" t="s">
+        <v>236</v>
+      </c>
+      <c r="C85" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D85" t="s">
+        <v>321</v>
+      </c>
+      <c r="E85" t="s">
+        <v>322</v>
+      </c>
+      <c r="F85" t="s">
+        <v>260</v>
+      </c>
+      <c r="G85" t="s">
+        <v>242</v>
+      </c>
+      <c r="H85" t="s">
+        <v>241</v>
+      </c>
+      <c r="I85"/>
+      <c r="J85"/>
+      <c r="K85"/>
+      <c r="L85"/>
+      <c r="M85"/>
+      <c r="N85"/>
+      <c r="O85"/>
+      <c r="P85"/>
+      <c r="Q85"/>
+      <c r="R85"/>
+      <c r="S85"/>
+      <c r="T85"/>
+      <c r="U85"/>
+      <c r="V85"/>
+      <c r="W85"/>
+      <c r="X85"/>
+      <c r="Y85"/>
+      <c r="Z85"/>
+      <c r="AA85"/>
+      <c r="AB85"/>
+      <c r="AC85"/>
+      <c r="AD85"/>
+      <c r="AE85"/>
+      <c r="AF85"/>
+      <c r="AG85"/>
+      <c r="AH85"/>
+      <c r="AI85"/>
+      <c r="AJ85"/>
+      <c r="AK85"/>
+      <c r="AL85"/>
+      <c r="AM85"/>
+      <c r="AN85"/>
+      <c r="AO85"/>
+      <c r="AP85"/>
+      <c r="AQ85"/>
+      <c r="AR85"/>
+      <c r="AS85"/>
+      <c r="AT85"/>
+      <c r="AU85"/>
+      <c r="AV85"/>
+      <c r="AW85"/>
+      <c r="AX85"/>
+      <c r="AY85"/>
+      <c r="AZ85"/>
+      <c r="BA85"/>
+      <c r="BB85"/>
+      <c r="BC85"/>
+      <c r="BD85"/>
+      <c r="BE85"/>
+      <c r="BF85"/>
+      <c r="BG85"/>
+      <c r="BH85"/>
+      <c r="BI85"/>
+      <c r="BJ85"/>
+      <c r="BK85"/>
+      <c r="BL85"/>
+      <c r="BM85"/>
+      <c r="BN85"/>
+      <c r="BO85"/>
+      <c r="BP85"/>
+      <c r="BQ85"/>
+      <c r="BR85"/>
+      <c r="BS85"/>
+      <c r="BT85"/>
+      <c r="BU85"/>
+      <c r="BV85"/>
+      <c r="BW85"/>
+      <c r="BX85"/>
+      <c r="BY85"/>
+      <c r="BZ85"/>
+      <c r="CA85"/>
+      <c r="CB85" t="n">
+        <v>12013.0905753432</v>
+      </c>
+      <c r="CC85"/>
+      <c r="CD85"/>
+      <c r="CE85"/>
+      <c r="CF85"/>
+      <c r="CG85"/>
+      <c r="CH85"/>
+      <c r="CI85"/>
+      <c r="CJ85"/>
+      <c r="CK85"/>
+      <c r="CL85"/>
+      <c r="CM85"/>
+      <c r="CN85"/>
+      <c r="CO85"/>
+      <c r="CP85"/>
+      <c r="CQ85"/>
+      <c r="CR85"/>
+      <c r="CS85"/>
+      <c r="CT85"/>
+      <c r="CU85"/>
+      <c r="CV85"/>
+      <c r="CW85"/>
+      <c r="CX85"/>
+      <c r="CY85"/>
+      <c r="CZ85"/>
+      <c r="DA85"/>
+      <c r="DB85"/>
+      <c r="DC85"/>
+      <c r="DD85"/>
+      <c r="DE85"/>
+      <c r="DF85"/>
+      <c r="DG85"/>
+      <c r="DH85"/>
+      <c r="DI85"/>
+      <c r="DJ85"/>
+      <c r="DK85"/>
+      <c r="DL85"/>
+      <c r="DM85"/>
+      <c r="DN85"/>
+      <c r="DO85"/>
+      <c r="DP85"/>
+      <c r="DQ85"/>
+      <c r="DR85"/>
+      <c r="DS85"/>
+      <c r="DT85"/>
+      <c r="DU85"/>
+      <c r="DV85"/>
+      <c r="DW85"/>
+      <c r="DX85"/>
+      <c r="DY85"/>
+      <c r="DZ85"/>
+      <c r="EA85"/>
+      <c r="EB85"/>
+      <c r="EC85"/>
+      <c r="ED85"/>
+      <c r="EE85"/>
+      <c r="EF85"/>
+      <c r="EG85"/>
+      <c r="EH85"/>
+      <c r="EI85"/>
+      <c r="EJ85"/>
+      <c r="EK85"/>
+      <c r="EL85"/>
+      <c r="EM85"/>
+      <c r="EN85"/>
+      <c r="EO85"/>
+      <c r="EP85"/>
+      <c r="EQ85"/>
+      <c r="ER85"/>
+      <c r="ES85"/>
+      <c r="ET85"/>
+      <c r="EU85"/>
+      <c r="EV85"/>
+      <c r="EW85"/>
+      <c r="EX85"/>
+      <c r="EY85"/>
+      <c r="EZ85"/>
+      <c r="FA85"/>
+      <c r="FB85"/>
+      <c r="FC85"/>
+      <c r="FD85"/>
+      <c r="FE85"/>
+      <c r="FF85"/>
+      <c r="FG85"/>
+      <c r="FH85"/>
+      <c r="FI85"/>
+      <c r="FJ85"/>
+      <c r="FK85"/>
+      <c r="FL85"/>
+      <c r="FM85"/>
+      <c r="FN85"/>
+      <c r="FO85"/>
+      <c r="FP85"/>
+      <c r="FQ85"/>
+      <c r="FR85"/>
+      <c r="FS85"/>
+      <c r="FT85"/>
+      <c r="FU85"/>
+      <c r="FV85"/>
+      <c r="FW85"/>
+      <c r="FX85"/>
+      <c r="FY85"/>
+      <c r="FZ85"/>
+      <c r="GA85"/>
+      <c r="GB85"/>
+      <c r="GC85"/>
+      <c r="GD85"/>
+      <c r="GE85"/>
+      <c r="GF85"/>
+      <c r="GG85"/>
+      <c r="GH85"/>
+      <c r="GI85"/>
+      <c r="GJ85"/>
+      <c r="GK85"/>
+      <c r="GL85"/>
+      <c r="GM85"/>
+      <c r="GN85"/>
+      <c r="GO85"/>
+      <c r="GP85"/>
+      <c r="GQ85"/>
+      <c r="GR85"/>
+      <c r="GS85"/>
+      <c r="GT85"/>
+      <c r="GU85"/>
+      <c r="GV85"/>
+      <c r="GW85"/>
+      <c r="GX85"/>
+      <c r="GY85"/>
+      <c r="GZ85"/>
+      <c r="HA85"/>
+      <c r="HB85"/>
+      <c r="HC85"/>
+      <c r="HD85"/>
+      <c r="HE85"/>
+      <c r="HF85"/>
+      <c r="HG85"/>
+      <c r="HH85"/>
+      <c r="HI85"/>
+      <c r="HJ85"/>
+      <c r="HK85"/>
+      <c r="HL85"/>
+      <c r="HM85"/>
+      <c r="HN85"/>
+      <c r="HO85"/>
+      <c r="HP85"/>
+      <c r="HQ85"/>
+      <c r="HR85"/>
+      <c r="HS85"/>
+      <c r="HT85"/>
+      <c r="HU85"/>
+      <c r="HV85"/>
+      <c r="HW85"/>
+      <c r="HX85"/>
+      <c r="HY85"/>
+      <c r="HZ85"/>
+      <c r="IA85" t="n">
+        <v>12013.0905753432</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>235</v>
+      </c>
+      <c r="B86" t="s">
+        <v>236</v>
+      </c>
+      <c r="C86" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D86" t="s">
+        <v>321</v>
+      </c>
+      <c r="E86" t="s">
+        <v>322</v>
+      </c>
+      <c r="F86" t="s">
+        <v>260</v>
+      </c>
+      <c r="G86" t="s">
+        <v>243</v>
+      </c>
+      <c r="H86" t="s">
+        <v>241</v>
+      </c>
+      <c r="I86"/>
+      <c r="J86"/>
+      <c r="K86"/>
+      <c r="L86"/>
+      <c r="M86"/>
+      <c r="N86"/>
+      <c r="O86"/>
+      <c r="P86"/>
+      <c r="Q86"/>
+      <c r="R86"/>
+      <c r="S86"/>
+      <c r="T86"/>
+      <c r="U86"/>
+      <c r="V86"/>
+      <c r="W86"/>
+      <c r="X86"/>
+      <c r="Y86"/>
+      <c r="Z86"/>
+      <c r="AA86"/>
+      <c r="AB86"/>
+      <c r="AC86"/>
+      <c r="AD86"/>
+      <c r="AE86"/>
+      <c r="AF86"/>
+      <c r="AG86"/>
+      <c r="AH86"/>
+      <c r="AI86"/>
+      <c r="AJ86"/>
+      <c r="AK86"/>
+      <c r="AL86"/>
+      <c r="AM86"/>
+      <c r="AN86"/>
+      <c r="AO86"/>
+      <c r="AP86"/>
+      <c r="AQ86"/>
+      <c r="AR86"/>
+      <c r="AS86"/>
+      <c r="AT86"/>
+      <c r="AU86"/>
+      <c r="AV86"/>
+      <c r="AW86"/>
+      <c r="AX86"/>
+      <c r="AY86"/>
+      <c r="AZ86"/>
+      <c r="BA86"/>
+      <c r="BB86"/>
+      <c r="BC86"/>
+      <c r="BD86"/>
+      <c r="BE86"/>
+      <c r="BF86"/>
+      <c r="BG86"/>
+      <c r="BH86"/>
+      <c r="BI86"/>
+      <c r="BJ86"/>
+      <c r="BK86"/>
+      <c r="BL86"/>
+      <c r="BM86"/>
+      <c r="BN86"/>
+      <c r="BO86"/>
+      <c r="BP86"/>
+      <c r="BQ86"/>
+      <c r="BR86"/>
+      <c r="BS86"/>
+      <c r="BT86"/>
+      <c r="BU86"/>
+      <c r="BV86"/>
+      <c r="BW86"/>
+      <c r="BX86"/>
+      <c r="BY86"/>
+      <c r="BZ86"/>
+      <c r="CA86"/>
+      <c r="CB86" t="n">
+        <v>1955.86029935237</v>
+      </c>
+      <c r="CC86"/>
+      <c r="CD86"/>
+      <c r="CE86"/>
+      <c r="CF86"/>
+      <c r="CG86"/>
+      <c r="CH86"/>
+      <c r="CI86"/>
+      <c r="CJ86"/>
+      <c r="CK86"/>
+      <c r="CL86"/>
+      <c r="CM86"/>
+      <c r="CN86"/>
+      <c r="CO86"/>
+      <c r="CP86"/>
+      <c r="CQ86"/>
+      <c r="CR86"/>
+      <c r="CS86"/>
+      <c r="CT86"/>
+      <c r="CU86"/>
+      <c r="CV86"/>
+      <c r="CW86"/>
+      <c r="CX86"/>
+      <c r="CY86"/>
+      <c r="CZ86"/>
+      <c r="DA86"/>
+      <c r="DB86"/>
+      <c r="DC86"/>
+      <c r="DD86"/>
+      <c r="DE86"/>
+      <c r="DF86"/>
+      <c r="DG86"/>
+      <c r="DH86"/>
+      <c r="DI86"/>
+      <c r="DJ86"/>
+      <c r="DK86"/>
+      <c r="DL86"/>
+      <c r="DM86"/>
+      <c r="DN86"/>
+      <c r="DO86"/>
+      <c r="DP86"/>
+      <c r="DQ86"/>
+      <c r="DR86"/>
+      <c r="DS86"/>
+      <c r="DT86"/>
+      <c r="DU86"/>
+      <c r="DV86"/>
+      <c r="DW86"/>
+      <c r="DX86"/>
+      <c r="DY86"/>
+      <c r="DZ86"/>
+      <c r="EA86"/>
+      <c r="EB86"/>
+      <c r="EC86"/>
+      <c r="ED86"/>
+      <c r="EE86"/>
+      <c r="EF86"/>
+      <c r="EG86"/>
+      <c r="EH86"/>
+      <c r="EI86"/>
+      <c r="EJ86"/>
+      <c r="EK86"/>
+      <c r="EL86"/>
+      <c r="EM86"/>
+      <c r="EN86"/>
+      <c r="EO86"/>
+      <c r="EP86"/>
+      <c r="EQ86"/>
+      <c r="ER86"/>
+      <c r="ES86"/>
+      <c r="ET86"/>
+      <c r="EU86"/>
+      <c r="EV86"/>
+      <c r="EW86"/>
+      <c r="EX86"/>
+      <c r="EY86"/>
+      <c r="EZ86"/>
+      <c r="FA86"/>
+      <c r="FB86"/>
+      <c r="FC86"/>
+      <c r="FD86"/>
+      <c r="FE86"/>
+      <c r="FF86"/>
+      <c r="FG86"/>
+      <c r="FH86"/>
+      <c r="FI86"/>
+      <c r="FJ86"/>
+      <c r="FK86"/>
+      <c r="FL86"/>
+      <c r="FM86"/>
+      <c r="FN86"/>
+      <c r="FO86"/>
+      <c r="FP86"/>
+      <c r="FQ86"/>
+      <c r="FR86"/>
+      <c r="FS86"/>
+      <c r="FT86"/>
+      <c r="FU86"/>
+      <c r="FV86"/>
+      <c r="FW86"/>
+      <c r="FX86"/>
+      <c r="FY86"/>
+      <c r="FZ86"/>
+      <c r="GA86"/>
+      <c r="GB86"/>
+      <c r="GC86"/>
+      <c r="GD86"/>
+      <c r="GE86"/>
+      <c r="GF86"/>
+      <c r="GG86"/>
+      <c r="GH86"/>
+      <c r="GI86"/>
+      <c r="GJ86"/>
+      <c r="GK86"/>
+      <c r="GL86"/>
+      <c r="GM86"/>
+      <c r="GN86"/>
+      <c r="GO86"/>
+      <c r="GP86"/>
+      <c r="GQ86"/>
+      <c r="GR86"/>
+      <c r="GS86"/>
+      <c r="GT86"/>
+      <c r="GU86"/>
+      <c r="GV86"/>
+      <c r="GW86"/>
+      <c r="GX86"/>
+      <c r="GY86"/>
+      <c r="GZ86"/>
+      <c r="HA86"/>
+      <c r="HB86"/>
+      <c r="HC86"/>
+      <c r="HD86"/>
+      <c r="HE86"/>
+      <c r="HF86"/>
+      <c r="HG86"/>
+      <c r="HH86"/>
+      <c r="HI86"/>
+      <c r="HJ86"/>
+      <c r="HK86"/>
+      <c r="HL86"/>
+      <c r="HM86"/>
+      <c r="HN86"/>
+      <c r="HO86"/>
+      <c r="HP86"/>
+      <c r="HQ86"/>
+      <c r="HR86"/>
+      <c r="HS86"/>
+      <c r="HT86"/>
+      <c r="HU86"/>
+      <c r="HV86"/>
+      <c r="HW86"/>
+      <c r="HX86"/>
+      <c r="HY86"/>
+      <c r="HZ86"/>
+      <c r="IA86" t="n">
+        <v>1955.86029935237</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>235</v>
+      </c>
+      <c r="B87" t="s">
+        <v>236</v>
+      </c>
+      <c r="C87" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D87" t="s">
+        <v>323</v>
+      </c>
+      <c r="E87" t="s">
+        <v>324</v>
+      </c>
+      <c r="F87" t="s">
+        <v>260</v>
+      </c>
+      <c r="G87" t="s">
+        <v>243</v>
+      </c>
+      <c r="H87" t="s">
+        <v>241</v>
+      </c>
+      <c r="I87"/>
+      <c r="J87"/>
+      <c r="K87"/>
+      <c r="L87"/>
+      <c r="M87"/>
+      <c r="N87"/>
+      <c r="O87"/>
+      <c r="P87"/>
+      <c r="Q87"/>
+      <c r="R87"/>
+      <c r="S87"/>
+      <c r="T87"/>
+      <c r="U87"/>
+      <c r="V87"/>
+      <c r="W87"/>
+      <c r="X87"/>
+      <c r="Y87"/>
+      <c r="Z87"/>
+      <c r="AA87"/>
+      <c r="AB87"/>
+      <c r="AC87"/>
+      <c r="AD87"/>
+      <c r="AE87"/>
+      <c r="AF87"/>
+      <c r="AG87"/>
+      <c r="AH87"/>
+      <c r="AI87"/>
+      <c r="AJ87"/>
+      <c r="AK87"/>
+      <c r="AL87"/>
+      <c r="AM87"/>
+      <c r="AN87"/>
+      <c r="AO87"/>
+      <c r="AP87"/>
+      <c r="AQ87"/>
+      <c r="AR87"/>
+      <c r="AS87"/>
+      <c r="AT87"/>
+      <c r="AU87"/>
+      <c r="AV87"/>
+      <c r="AW87"/>
+      <c r="AX87"/>
+      <c r="AY87"/>
+      <c r="AZ87"/>
+      <c r="BA87"/>
+      <c r="BB87"/>
+      <c r="BC87"/>
+      <c r="BD87"/>
+      <c r="BE87"/>
+      <c r="BF87"/>
+      <c r="BG87"/>
+      <c r="BH87"/>
+      <c r="BI87"/>
+      <c r="BJ87"/>
+      <c r="BK87"/>
+      <c r="BL87"/>
+      <c r="BM87"/>
+      <c r="BN87"/>
+      <c r="BO87"/>
+      <c r="BP87"/>
+      <c r="BQ87"/>
+      <c r="BR87"/>
+      <c r="BS87"/>
+      <c r="BT87"/>
+      <c r="BU87"/>
+      <c r="BV87"/>
+      <c r="BW87"/>
+      <c r="BX87"/>
+      <c r="BY87"/>
+      <c r="BZ87"/>
+      <c r="CA87"/>
+      <c r="CB87"/>
+      <c r="CC87"/>
+      <c r="CD87"/>
+      <c r="CE87"/>
+      <c r="CF87"/>
+      <c r="CG87"/>
+      <c r="CH87"/>
+      <c r="CI87"/>
+      <c r="CJ87"/>
+      <c r="CK87"/>
+      <c r="CL87"/>
+      <c r="CM87"/>
+      <c r="CN87"/>
+      <c r="CO87"/>
+      <c r="CP87"/>
+      <c r="CQ87"/>
+      <c r="CR87"/>
+      <c r="CS87"/>
+      <c r="CT87"/>
+      <c r="CU87"/>
+      <c r="CV87"/>
+      <c r="CW87"/>
+      <c r="CX87"/>
+      <c r="CY87"/>
+      <c r="CZ87"/>
+      <c r="DA87"/>
+      <c r="DB87"/>
+      <c r="DC87"/>
+      <c r="DD87"/>
+      <c r="DE87"/>
+      <c r="DF87"/>
+      <c r="DG87"/>
+      <c r="DH87"/>
+      <c r="DI87"/>
+      <c r="DJ87"/>
+      <c r="DK87"/>
+      <c r="DL87"/>
+      <c r="DM87"/>
+      <c r="DN87"/>
+      <c r="DO87"/>
+      <c r="DP87"/>
+      <c r="DQ87"/>
+      <c r="DR87"/>
+      <c r="DS87"/>
+      <c r="DT87"/>
+      <c r="DU87"/>
+      <c r="DV87"/>
+      <c r="DW87"/>
+      <c r="DX87"/>
+      <c r="DY87"/>
+      <c r="DZ87"/>
+      <c r="EA87"/>
+      <c r="EB87"/>
+      <c r="EC87"/>
+      <c r="ED87"/>
+      <c r="EE87"/>
+      <c r="EF87"/>
+      <c r="EG87"/>
+      <c r="EH87"/>
+      <c r="EI87"/>
+      <c r="EJ87"/>
+      <c r="EK87"/>
+      <c r="EL87"/>
+      <c r="EM87"/>
+      <c r="EN87"/>
+      <c r="EO87"/>
+      <c r="EP87"/>
+      <c r="EQ87"/>
+      <c r="ER87"/>
+      <c r="ES87"/>
+      <c r="ET87"/>
+      <c r="EU87"/>
+      <c r="EV87"/>
+      <c r="EW87"/>
+      <c r="EX87"/>
+      <c r="EY87"/>
+      <c r="EZ87"/>
+      <c r="FA87"/>
+      <c r="FB87"/>
+      <c r="FC87"/>
+      <c r="FD87"/>
+      <c r="FE87"/>
+      <c r="FF87"/>
+      <c r="FG87"/>
+      <c r="FH87"/>
+      <c r="FI87"/>
+      <c r="FJ87"/>
+      <c r="FK87"/>
+      <c r="FL87"/>
+      <c r="FM87"/>
+      <c r="FN87"/>
+      <c r="FO87"/>
+      <c r="FP87"/>
+      <c r="FQ87"/>
+      <c r="FR87"/>
+      <c r="FS87"/>
+      <c r="FT87"/>
+      <c r="FU87"/>
+      <c r="FV87"/>
+      <c r="FW87"/>
+      <c r="FX87"/>
+      <c r="FY87"/>
+      <c r="FZ87"/>
+      <c r="GA87"/>
+      <c r="GB87"/>
+      <c r="GC87"/>
+      <c r="GD87"/>
+      <c r="GE87"/>
+      <c r="GF87"/>
+      <c r="GG87"/>
+      <c r="GH87"/>
+      <c r="GI87"/>
+      <c r="GJ87"/>
+      <c r="GK87"/>
+      <c r="GL87"/>
+      <c r="GM87"/>
+      <c r="GN87"/>
+      <c r="GO87"/>
+      <c r="GP87"/>
+      <c r="GQ87"/>
+      <c r="GR87"/>
+      <c r="GS87"/>
+      <c r="GT87"/>
+      <c r="GU87"/>
+      <c r="GV87"/>
+      <c r="GW87"/>
+      <c r="GX87"/>
+      <c r="GY87"/>
+      <c r="GZ87"/>
+      <c r="HA87"/>
+      <c r="HB87"/>
+      <c r="HC87"/>
+      <c r="HD87"/>
+      <c r="HE87"/>
+      <c r="HF87"/>
+      <c r="HG87"/>
+      <c r="HH87"/>
+      <c r="HI87"/>
+      <c r="HJ87"/>
+      <c r="HK87"/>
+      <c r="HL87"/>
+      <c r="HM87"/>
+      <c r="HN87"/>
+      <c r="HO87"/>
+      <c r="HP87"/>
+      <c r="HQ87"/>
+      <c r="HR87"/>
+      <c r="HS87"/>
+      <c r="HT87"/>
+      <c r="HU87" t="n">
+        <v>3556.36366010438</v>
+      </c>
+      <c r="HV87"/>
+      <c r="HW87"/>
+      <c r="HX87"/>
+      <c r="HY87"/>
+      <c r="HZ87"/>
+      <c r="IA87" t="n">
         <v>3556.36366010438</v>
       </c>
     </row>
